--- a/AfDD_2023_Annex_Table_Tab14.xlsx
+++ b/AfDD_2023_Annex_Table_Tab14.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab14" sheetId="1" r:id="rId1"/>

--- a/AfDD_2023_Annex_Table_Tab14.xlsx
+++ b/AfDD_2023_Annex_Table_Tab14.xlsx
@@ -1,29 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C91FCDC-CA6D-486B-A013-6FD8D5B8E3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{97F00E70-5527-44B0-BDCB-FCDA9A74DFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab14" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab14'!$A$2:$O$99</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab14'!$A$1:$E$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab14'!$A$2:$O$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab14'!$A$1:$E$98</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="178">
   <si>
     <t>Table 14: Digitalisation</t>
   </si>
@@ -340,7 +352,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde</t>
+    <t>Cabo Verde*</t>
   </si>
   <si>
     <t>CIV</t>
@@ -529,7 +541,7 @@
     <t>ROW, Fragile States</t>
   </si>
   <si>
-    <t>Extremely Fragile States</t>
+    <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
   </si>
   <si>
     <t>Note: *Resource-rich countries; ".." indicates data not available or not applicable.</t>
@@ -541,10 +553,7 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
-    <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
-  </si>
-  <si>
-    <t>Source: Author's calculations based on World Bank Enterprise Survey (retrieved April 2020), UNCTADStat Online Data Centre (retrieved 17/11/2021), UNCTAD B2C E-Commerce Index Reports (2015-2020).</t>
+    <t>Source: Author's calculations based on World Bank Enterprise Survey (retrieved April 2020), UNCTADStat Online Data Centre (retrieved 25/08/2022), UNCTAD B2C E-Commerce Index Reports (2015-2020).</t>
   </si>
   <si>
     <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
@@ -565,7 +574,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
@@ -876,23 +885,22 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -925,10 +933,7 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -937,7 +942,7 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -949,7 +954,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -958,7 +963,7 @@
     <xf numFmtId="165" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -967,7 +972,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -979,7 +984,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -988,7 +993,7 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -997,7 +1002,7 @@
     <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1009,16 +1014,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
@@ -1057,7 +1058,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1069,7 +1070,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1116,6 +1117,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1151,6 +1169,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1302,23 +1337,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E54C630-7A3D-43CB-B467-6044FDBA0141}">
+  <sheetPr codeName="Sheet27">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O114"/>
+  <dimension ref="A1:O113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" style="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="15" width="13.26953125" style="50" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="15" width="13.26953125" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1337,4660 +1371,4618 @@
       <c r="O1" s="4"/>
     </row>
     <row r="2" spans="1:15" ht="74" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="13">
+      <c r="C3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="12">
         <v>20.68</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="12">
         <v>4.549244249</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="12">
         <v>38.588000000000001</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="13">
         <v>8.4886961840000001</v>
       </c>
-      <c r="O3" s="14">
+      <c r="O3" s="13">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="16">
+      <c r="C4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="15">
         <v>20.652000000000001</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="15">
         <v>2.2349173919999998</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="15">
         <v>233.01</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N4" s="16">
         <v>25.21586778</v>
       </c>
-      <c r="O4" s="17">
+      <c r="O4" s="16">
         <v>38.700000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="18">
         <v>90.2</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="18">
         <v>58.6</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="18">
         <v>61.2</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="19">
         <v>62.5</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="18">
         <v>98</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="18">
         <v>85.9</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="18">
         <v>63.2</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="19">
         <v>73.099999999999994</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="18">
         <v>2.7610000000000001</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="18">
         <v>3.1095493909999998</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="18">
         <v>39.636000000000003</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N5" s="19">
         <v>44.639659420000001</v>
       </c>
-      <c r="O5" s="21">
+      <c r="O5" s="19">
         <v>28.4</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="18">
         <v>16.100000000000001</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="18">
         <v>24.3</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="18">
         <v>12.3</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="19">
         <v>14.9</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="18">
         <v>38.200000000000003</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="18">
         <v>76.599999999999994</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="18">
         <v>36.6</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="19">
         <v>44.6</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="18">
         <v>0.42099999999999999</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="18">
         <v>1.442077139</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="18">
         <v>5.3289999999999997</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="19">
         <v>18.25375077</v>
       </c>
-      <c r="O6" s="21">
+      <c r="O6" s="19">
         <v>27.4</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="18">
         <v>74.8</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="18">
         <v>61.9</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="18">
         <v>28.9</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="19">
         <v>44.9</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="18">
         <v>97.1</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="18">
         <v>91.2</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="18">
         <v>69.5</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="19">
         <v>79.599999999999994</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="18">
         <v>44.098999999999997</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="18">
         <v>24.188620669999999</v>
       </c>
-      <c r="M7" s="20">
+      <c r="M7" s="18">
         <v>102.27</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N7" s="19">
         <v>56.095835180000002</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O7" s="19">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="18">
         <v>70.400000000000006</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="18">
         <v>52.6</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="18">
         <v>32.299999999999997</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="19">
         <v>40.299999999999997</v>
       </c>
-      <c r="G8" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="20">
+      <c r="G8" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="18">
         <v>23.239000000000001</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="18">
         <v>2.4960125450000001</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="18">
         <v>77.593999999999994</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N8" s="19">
         <v>8.3340762260000005</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8" s="19">
         <v>20.100000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="18">
         <v>99.4</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="18">
         <v>59.7</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="18">
         <v>31.9</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="19">
         <v>39.4</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="18">
         <v>100</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="18">
         <v>93.2</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="18">
         <v>73.7</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="19">
         <v>78.099999999999994</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="18">
         <v>14.382</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9" s="18">
         <v>2.1251255979999999</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9" s="18">
         <v>44.292000000000002</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9" s="19">
         <v>6.544713045</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9" s="19">
         <v>43.9</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="20">
+      <c r="C10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="18">
         <v>3791.922</v>
       </c>
-      <c r="N10" s="21">
+      <c r="N10" s="19">
         <v>25.748146040000002</v>
       </c>
-      <c r="O10" s="21">
+      <c r="O10" s="19">
         <v>56.5</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <v>61</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <v>31.1</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>13.7</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="16">
         <v>20.3</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="15">
         <v>95.9</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="15">
         <v>57.3</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="15">
         <v>48.6</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="16">
         <v>53.1</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="15">
         <v>18.515999999999998</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="15">
         <v>1.82996614</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M11" s="15">
         <v>114.39</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N11" s="16">
         <v>11.30534817</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O11" s="16">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="21">
         <v>82.3</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="21">
         <v>53.4</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="21">
         <v>33.700000000000003</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="22">
         <v>38.700000000000003</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="21">
         <v>99.6</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="21">
         <v>84.6</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="21">
         <v>72</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="22">
         <v>75.099999999999994</v>
       </c>
-      <c r="K12" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="N12" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="O12" s="24">
+      <c r="K12" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" s="22">
         <v>30.5</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="25">
         <v>70.599999999999994</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="25">
         <v>48.8</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="25">
         <v>30.571428571428601</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="26">
         <v>37.285714285714299</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="25">
         <v>88.133333333333397</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="25">
         <v>81.466666666666697</v>
       </c>
-      <c r="I13" s="27">
+      <c r="I13" s="25">
         <v>60.6</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="26">
         <v>67.266666666666694</v>
       </c>
-      <c r="K13" s="27">
+      <c r="K13" s="25">
         <v>144.75</v>
       </c>
-      <c r="L13" s="27">
+      <c r="L13" s="25">
         <v>5.2469391405000003</v>
       </c>
-      <c r="M13" s="27">
+      <c r="M13" s="25">
         <v>4447.0309999999999</v>
       </c>
-      <c r="N13" s="28">
+      <c r="N13" s="26">
         <v>22.736232534999999</v>
       </c>
-      <c r="O13" s="28">
+      <c r="O13" s="26">
         <v>31.95</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="18">
         <v>72.8</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="18">
         <v>19.7</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="18">
         <v>20.399999999999999</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="19">
         <v>25.6</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="18">
         <v>95.5</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="18">
         <v>76.400000000000006</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="18">
         <v>55.3</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="19">
         <v>67</v>
       </c>
-      <c r="K14" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M14" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="N14" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="O14" s="21">
+      <c r="K14" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="19">
         <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="18">
         <v>55.4</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="18">
         <v>42.2</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="18">
         <v>14.9</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="19">
         <v>22.6</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="18">
         <v>92.3</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="18">
         <v>72.599999999999994</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="18">
         <v>46.6</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="19">
         <v>54.4</v>
       </c>
-      <c r="K15" s="20">
+      <c r="K15" s="18">
         <v>137.47999999999999</v>
       </c>
-      <c r="L15" s="20">
+      <c r="L15" s="18">
         <v>6.2343268900000002</v>
       </c>
-      <c r="M15" s="20">
+      <c r="M15" s="18">
         <v>690.54300000000001</v>
       </c>
-      <c r="N15" s="21">
+      <c r="N15" s="19">
         <v>31.314160560000001</v>
       </c>
-      <c r="O15" s="21">
+      <c r="O15" s="19">
         <v>35.5</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M16" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="N16" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="O16" s="21" t="s">
+      <c r="C16" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O16" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <v>58.2</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="12">
         <v>14.4</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="12">
         <v>7.3</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="13">
         <v>9.5</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="12">
         <v>78.7</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="12">
         <v>55</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="12">
         <v>19.899999999999999</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="13">
         <v>24.9</v>
       </c>
-      <c r="K17" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M17" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="N17" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="O17" s="14">
+      <c r="K17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" s="13">
         <v>7.1</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="N18" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="O18" s="14">
+      <c r="C18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="O18" s="13">
         <v>12.9</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="15">
         <v>38.700000000000003</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="15">
         <v>39.200000000000003</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="15">
         <v>12.6</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="16">
         <v>17</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="15">
         <v>76.7</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H19" s="15">
         <v>68.8</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="15">
         <v>23.6</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="16">
         <v>31.4</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K19" s="15">
         <v>2.12</v>
       </c>
-      <c r="L19" s="16">
+      <c r="L19" s="15">
         <v>1.4940941000000001</v>
       </c>
-      <c r="M19" s="16">
+      <c r="M19" s="15">
         <v>5.9870000000000001</v>
       </c>
-      <c r="N19" s="17">
+      <c r="N19" s="16">
         <v>4.219406309</v>
       </c>
-      <c r="O19" s="17">
+      <c r="O19" s="16">
         <v>12.8</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="N20" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="O20" s="14" t="s">
+      <c r="C20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="O20" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="N21" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="O21" s="14">
+      <c r="C21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="O21" s="13">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="20">
+      <c r="C22" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="18">
         <v>0.98299999999999998</v>
       </c>
-      <c r="L22" s="20">
+      <c r="L22" s="18">
         <v>1.653629405</v>
       </c>
-      <c r="M22" s="20">
+      <c r="M22" s="18">
         <v>2.609</v>
       </c>
-      <c r="N22" s="21">
+      <c r="N22" s="19">
         <v>4.3889309450000002</v>
       </c>
-      <c r="O22" s="21" t="s">
+      <c r="O22" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="25">
         <v>56.274999999999999</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="25">
         <v>28.875</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="25">
         <v>13.8</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="26">
         <v>18.675000000000001</v>
       </c>
-      <c r="G23" s="27">
+      <c r="G23" s="25">
         <v>85.8</v>
       </c>
-      <c r="H23" s="27">
+      <c r="H23" s="25">
         <v>68.2</v>
       </c>
-      <c r="I23" s="27">
+      <c r="I23" s="25">
         <v>36.35</v>
       </c>
-      <c r="J23" s="28">
+      <c r="J23" s="26">
         <v>44.424999999999997</v>
       </c>
-      <c r="K23" s="27">
+      <c r="K23" s="25">
         <v>140.583</v>
       </c>
-      <c r="L23" s="27">
+      <c r="L23" s="25">
         <v>3.1273501316666699</v>
       </c>
-      <c r="M23" s="27">
+      <c r="M23" s="25">
         <v>699.13900000000001</v>
       </c>
-      <c r="N23" s="28">
+      <c r="N23" s="26">
         <v>13.307499271333301</v>
       </c>
-      <c r="O23" s="28">
+      <c r="O23" s="26">
         <v>19.100000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" s="20">
+      <c r="C24" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="18">
         <v>17.248999999999999</v>
       </c>
-      <c r="L24" s="20">
+      <c r="L24" s="18">
         <v>16.969011309999999</v>
       </c>
-      <c r="M24" s="20">
+      <c r="M24" s="18">
         <v>18.939</v>
       </c>
-      <c r="N24" s="21">
+      <c r="N24" s="19">
         <v>18.631578950000002</v>
       </c>
-      <c r="O24" s="21">
+      <c r="O24" s="19">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="18">
         <v>74.900000000000006</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="18">
         <v>45.4</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="18">
         <v>35</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="19">
         <v>40.700000000000003</v>
       </c>
-      <c r="G25" s="20">
+      <c r="G25" s="18">
         <v>100</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="18">
         <v>85.5</v>
       </c>
-      <c r="I25" s="20">
+      <c r="I25" s="18">
         <v>62.1</v>
       </c>
-      <c r="J25" s="21">
+      <c r="J25" s="19">
         <v>71.599999999999994</v>
       </c>
-      <c r="K25" s="20">
+      <c r="K25" s="18">
         <v>112.795</v>
       </c>
-      <c r="L25" s="20">
+      <c r="L25" s="18">
         <v>9.7784493529999992</v>
       </c>
-      <c r="M25" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="N25" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="O25" s="21">
+      <c r="M25" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N25" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O25" s="19">
         <v>27.7</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K26" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M26" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="N26" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="O26" s="21" t="s">
+      <c r="C26" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N26" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O26" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="18">
         <v>73.599999999999994</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="18">
         <v>38.299999999999997</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="18">
         <v>27.7</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="19">
         <v>34.799999999999997</v>
       </c>
-      <c r="G27" s="20">
+      <c r="G27" s="18">
         <v>89.6</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="18">
         <v>82.2</v>
       </c>
-      <c r="I27" s="20">
+      <c r="I27" s="18">
         <v>67.8</v>
       </c>
-      <c r="J27" s="21">
+      <c r="J27" s="19">
         <v>74</v>
       </c>
-      <c r="K27" s="20">
+      <c r="K27" s="18">
         <v>131.876</v>
       </c>
-      <c r="L27" s="20">
+      <c r="L27" s="18">
         <v>2.7234407429999998</v>
       </c>
-      <c r="M27" s="20">
+      <c r="M27" s="18">
         <v>298.61900000000003</v>
       </c>
-      <c r="N27" s="21">
+      <c r="N27" s="19">
         <v>6.1669382690000001</v>
       </c>
-      <c r="O27" s="21">
+      <c r="O27" s="19">
         <v>27.5</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="18">
         <v>79.599999999999994</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="18">
         <v>72</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="18">
         <v>35</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="19">
         <v>47.3</v>
       </c>
-      <c r="G28" s="20">
+      <c r="G28" s="18">
         <v>90.8</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="18">
         <v>87.7</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="18">
         <v>60.9</v>
       </c>
-      <c r="J28" s="21">
+      <c r="J28" s="19">
         <v>72.5</v>
       </c>
-      <c r="K28" s="20">
+      <c r="K28" s="18">
         <v>628.827</v>
       </c>
-      <c r="L28" s="20">
+      <c r="L28" s="18">
         <v>11.18937923</v>
       </c>
-      <c r="M28" s="20">
+      <c r="M28" s="18">
         <v>1412.0139999999999</v>
       </c>
-      <c r="N28" s="21">
+      <c r="N28" s="19">
         <v>25.125448049999999</v>
       </c>
-      <c r="O28" s="21">
+      <c r="O28" s="19">
         <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="18">
         <v>78.3</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="18">
         <v>47.1</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="18">
         <v>12.3</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="19">
         <v>29.5</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G29" s="18">
         <v>91.9</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H29" s="18">
         <v>81.5</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I29" s="18">
         <v>47.9</v>
       </c>
-      <c r="J29" s="21">
+      <c r="J29" s="19">
         <v>62</v>
       </c>
-      <c r="K29" s="20">
+      <c r="K29" s="18">
         <v>128.43600000000001</v>
       </c>
-      <c r="L29" s="20">
+      <c r="L29" s="18">
         <v>8.6778208019999994</v>
       </c>
-      <c r="M29" s="20">
+      <c r="M29" s="18">
         <v>225.12200000000001</v>
       </c>
-      <c r="N29" s="21">
+      <c r="N29" s="19">
         <v>15.21044236</v>
       </c>
-      <c r="O29" s="21">
+      <c r="O29" s="19">
         <v>19.2</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J30" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K30" s="20">
+      <c r="C30" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="18">
         <v>137.41300000000001</v>
       </c>
-      <c r="L30" s="20">
+      <c r="L30" s="18">
         <v>4.6582967640000001</v>
       </c>
-      <c r="M30" s="20">
+      <c r="M30" s="18">
         <v>746.87400000000002</v>
       </c>
-      <c r="N30" s="21">
+      <c r="N30" s="19">
         <v>25.319007209999999</v>
       </c>
-      <c r="O30" s="21">
+      <c r="O30" s="19">
         <v>58.4</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J31" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K31" s="20">
+      <c r="C31" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" s="18">
         <v>19.376000000000001</v>
       </c>
-      <c r="L31" s="20">
+      <c r="L31" s="18">
         <v>1.9090162989999999</v>
       </c>
-      <c r="M31" s="20">
+      <c r="M31" s="18">
         <v>36.156999999999996</v>
       </c>
-      <c r="N31" s="21">
+      <c r="N31" s="19">
         <v>3.5623607719999999</v>
       </c>
-      <c r="O31" s="21">
+      <c r="O31" s="19">
         <v>28.3</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J32" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K32" s="20">
+      <c r="C32" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" s="18">
         <v>13.334</v>
       </c>
-      <c r="L32" s="20">
+      <c r="L32" s="18">
         <v>1.1841813130000001</v>
       </c>
-      <c r="M32" s="20">
+      <c r="M32" s="18">
         <v>359.75700000000001</v>
       </c>
-      <c r="N32" s="21">
+      <c r="N32" s="19">
         <v>31.949716250000002</v>
       </c>
-      <c r="O32" s="21" t="s">
+      <c r="O32" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J33" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K33" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L33" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M33" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="N33" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="O33" s="21" t="s">
+      <c r="C33" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M33" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N33" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O33" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="15">
         <v>76</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="15">
         <v>61.9</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="15">
         <v>19.600000000000001</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="16">
         <v>25.6</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="15">
         <v>82.1</v>
       </c>
-      <c r="H34" s="16">
+      <c r="H34" s="15">
         <v>80.599999999999994</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I34" s="15">
         <v>46.6</v>
       </c>
-      <c r="J34" s="17">
+      <c r="J34" s="16">
         <v>51.2</v>
       </c>
-      <c r="K34" s="16">
+      <c r="K34" s="15">
         <v>0.35</v>
       </c>
-      <c r="L34" s="16">
+      <c r="L34" s="15">
         <v>0.33451208999999998</v>
       </c>
-      <c r="M34" s="16">
+      <c r="M34" s="15">
         <v>100.11</v>
       </c>
-      <c r="N34" s="17">
+      <c r="N34" s="16">
         <v>95.68001529</v>
       </c>
-      <c r="O34" s="17" t="s">
+      <c r="O34" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="18">
         <v>68.5</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="18">
         <v>72.099999999999994</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="18">
         <v>59.3</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="19">
         <v>64.7</v>
       </c>
-      <c r="G35" s="20">
+      <c r="G35" s="18">
         <v>69.3</v>
       </c>
-      <c r="H35" s="20">
+      <c r="H35" s="18">
         <v>74.7</v>
       </c>
-      <c r="I35" s="20">
+      <c r="I35" s="18">
         <v>61.5</v>
       </c>
-      <c r="J35" s="21">
+      <c r="J35" s="19">
         <v>67</v>
       </c>
-      <c r="K35" s="20">
+      <c r="K35" s="18">
         <v>0.121</v>
       </c>
-      <c r="L35" s="20">
+      <c r="L35" s="18">
         <v>8.8541160000000004E-3</v>
       </c>
-      <c r="M35" s="20">
+      <c r="M35" s="18">
         <v>55.389000000000003</v>
       </c>
-      <c r="N35" s="21">
+      <c r="N35" s="19">
         <v>4.0530632320000004</v>
       </c>
-      <c r="O35" s="21">
+      <c r="O35" s="19">
         <v>21.7</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="18">
         <v>83.5</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="18">
         <v>36.6</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="18">
         <v>16.399999999999999</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="19">
         <v>22.6</v>
       </c>
-      <c r="G36" s="20">
+      <c r="G36" s="18">
         <v>94.1</v>
       </c>
-      <c r="H36" s="20">
+      <c r="H36" s="18">
         <v>49.2</v>
       </c>
-      <c r="I36" s="20">
+      <c r="I36" s="18">
         <v>22.2</v>
       </c>
-      <c r="J36" s="21">
+      <c r="J36" s="19">
         <v>30</v>
       </c>
-      <c r="K36" s="20">
+      <c r="K36" s="18">
         <v>28.744</v>
       </c>
-      <c r="L36" s="20">
+      <c r="L36" s="18">
         <v>0.67149621900000001</v>
       </c>
-      <c r="M36" s="20">
+      <c r="M36" s="18">
         <v>314.23099999999999</v>
       </c>
-      <c r="N36" s="21">
+      <c r="N36" s="19">
         <v>7.3408338569999998</v>
       </c>
-      <c r="O36" s="21">
+      <c r="O36" s="19">
         <v>36.6</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="18">
         <v>37.1</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="18">
         <v>42.7</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="18">
         <v>13.5</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F37" s="19">
         <v>19.2</v>
       </c>
-      <c r="G37" s="20">
+      <c r="G37" s="18">
         <v>67.3</v>
       </c>
-      <c r="H37" s="20">
+      <c r="H37" s="18">
         <v>56.5</v>
       </c>
-      <c r="I37" s="20">
+      <c r="I37" s="18">
         <v>34.700000000000003</v>
       </c>
-      <c r="J37" s="21">
+      <c r="J37" s="19">
         <v>39.700000000000003</v>
       </c>
-      <c r="K37" s="20">
+      <c r="K37" s="18">
         <v>22.495000000000001</v>
       </c>
-      <c r="L37" s="20">
+      <c r="L37" s="18">
         <v>1.1086070189999999</v>
       </c>
-      <c r="M37" s="20">
+      <c r="M37" s="18">
         <v>266.61</v>
       </c>
-      <c r="N37" s="21">
+      <c r="N37" s="19">
         <v>13.139173919999999</v>
       </c>
-      <c r="O37" s="21">
+      <c r="O37" s="19">
         <v>34.9</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="27">
+      <c r="C38" s="25">
         <v>71.4375</v>
       </c>
-      <c r="D38" s="27">
+      <c r="D38" s="25">
         <v>52.012500000000003</v>
       </c>
-      <c r="E38" s="27">
+      <c r="E38" s="25">
         <v>27.35</v>
       </c>
-      <c r="F38" s="28">
+      <c r="F38" s="26">
         <v>35.549999999999997</v>
       </c>
-      <c r="G38" s="27">
+      <c r="G38" s="25">
         <v>85.637500000000003</v>
       </c>
-      <c r="H38" s="27">
+      <c r="H38" s="25">
         <v>74.737499999999997</v>
       </c>
-      <c r="I38" s="27">
+      <c r="I38" s="25">
         <v>50.462499999999999</v>
       </c>
-      <c r="J38" s="28">
+      <c r="J38" s="26">
         <v>58.5</v>
       </c>
-      <c r="K38" s="27">
+      <c r="K38" s="25">
         <v>1241.0160000000001</v>
       </c>
-      <c r="L38" s="27">
+      <c r="L38" s="25">
         <v>4.9344221048333301</v>
       </c>
-      <c r="M38" s="27">
+      <c r="M38" s="25">
         <v>3833.8220000000001</v>
       </c>
-      <c r="N38" s="28">
+      <c r="N38" s="26">
         <v>22.379870741818198</v>
       </c>
-      <c r="O38" s="28">
+      <c r="O38" s="26">
         <v>31.53</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I39" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J39" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K39" s="13">
+      <c r="C39" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" s="12">
         <v>89.786000000000001</v>
       </c>
-      <c r="L39" s="13">
+      <c r="L39" s="12">
         <v>2.7003681859999999</v>
       </c>
-      <c r="M39" s="13">
+      <c r="M39" s="12">
         <v>2206.2359999999999</v>
       </c>
-      <c r="N39" s="14">
+      <c r="N39" s="13">
         <v>66.353880380000007</v>
       </c>
-      <c r="O39" s="14">
+      <c r="O39" s="13">
         <v>52.2</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="18">
         <v>91.7</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="18">
         <v>73.099999999999994</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="18">
         <v>37.799999999999997</v>
       </c>
-      <c r="F40" s="21">
+      <c r="F40" s="19">
         <v>51.7</v>
       </c>
-      <c r="G40" s="20">
+      <c r="G40" s="18">
         <v>96.8</v>
       </c>
-      <c r="H40" s="20">
+      <c r="H40" s="18">
         <v>78.900000000000006</v>
       </c>
-      <c r="I40" s="20">
+      <c r="I40" s="18">
         <v>41.6</v>
       </c>
-      <c r="J40" s="21">
+      <c r="J40" s="19">
         <v>56</v>
       </c>
-      <c r="K40" s="20">
+      <c r="K40" s="18">
         <v>836.4</v>
       </c>
-      <c r="L40" s="20">
+      <c r="L40" s="18">
         <v>3.3388555119999999</v>
       </c>
-      <c r="M40" s="20">
+      <c r="M40" s="18">
         <v>2006</v>
       </c>
-      <c r="N40" s="21">
+      <c r="N40" s="19">
         <v>8.0078241949999995</v>
       </c>
-      <c r="O40" s="21">
+      <c r="O40" s="19">
         <v>36.6</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I41" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J41" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K41" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L41" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M41" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="N41" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="O41" s="14">
+      <c r="C41" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M41" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="N41" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="O41" s="13">
         <v>49.7</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="12">
         <v>73</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="12">
         <v>50.7</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="12">
         <v>23.5</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F42" s="13">
         <v>40.6</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G42" s="12">
         <v>100</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42" s="12">
         <v>91.5</v>
       </c>
-      <c r="I42" s="13">
+      <c r="I42" s="12">
         <v>70</v>
       </c>
-      <c r="J42" s="14">
+      <c r="J42" s="13">
         <v>82.3</v>
       </c>
-      <c r="K42" s="13">
+      <c r="K42" s="12">
         <v>12.156000000000001</v>
       </c>
-      <c r="L42" s="13">
+      <c r="L42" s="12">
         <v>5.9156451199999998</v>
       </c>
-      <c r="M42" s="13">
+      <c r="M42" s="12">
         <v>39.381</v>
       </c>
-      <c r="N42" s="14">
+      <c r="N42" s="13">
         <v>19.16452949</v>
       </c>
-      <c r="O42" s="14">
+      <c r="O42" s="13">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="18">
         <v>74</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="18">
         <v>71.400000000000006</v>
       </c>
-      <c r="E43" s="20">
+      <c r="E43" s="18">
         <v>66.8</v>
       </c>
-      <c r="F43" s="21">
+      <c r="F43" s="19">
         <v>69.400000000000006</v>
       </c>
-      <c r="G43" s="20">
+      <c r="G43" s="18">
         <v>94.4</v>
       </c>
-      <c r="H43" s="20">
+      <c r="H43" s="18">
         <v>98</v>
       </c>
-      <c r="I43" s="20">
+      <c r="I43" s="18">
         <v>96.8</v>
       </c>
-      <c r="J43" s="21">
+      <c r="J43" s="19">
         <v>97</v>
       </c>
-      <c r="K43" s="20">
+      <c r="K43" s="18">
         <v>1578.2070000000001</v>
       </c>
-      <c r="L43" s="20">
+      <c r="L43" s="18">
         <v>8.1547262269999994</v>
       </c>
-      <c r="M43" s="20">
+      <c r="M43" s="18">
         <v>4534.2370000000001</v>
       </c>
-      <c r="N43" s="21">
+      <c r="N43" s="19">
         <v>23.428777960000001</v>
       </c>
-      <c r="O43" s="21">
+      <c r="O43" s="19">
         <v>44.8</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C44" s="20">
+      <c r="C44" s="18">
         <v>80.7</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D44" s="18">
         <v>73</v>
       </c>
-      <c r="E44" s="20">
+      <c r="E44" s="18">
         <v>59.4</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F44" s="19">
         <v>66.3</v>
       </c>
-      <c r="G44" s="20">
+      <c r="G44" s="18">
         <v>95.9</v>
       </c>
-      <c r="H44" s="20">
+      <c r="H44" s="18">
         <v>97.4</v>
       </c>
-      <c r="I44" s="20">
+      <c r="I44" s="18">
         <v>90.8</v>
       </c>
-      <c r="J44" s="21">
+      <c r="J44" s="19">
         <v>93.6</v>
       </c>
-      <c r="K44" s="20">
+      <c r="K44" s="18">
         <v>268.12599999999998</v>
       </c>
-      <c r="L44" s="20">
+      <c r="L44" s="18">
         <v>6.4237305679999999</v>
       </c>
-      <c r="M44" s="20">
+      <c r="M44" s="18">
         <v>514.64800000000002</v>
       </c>
-      <c r="N44" s="21">
+      <c r="N44" s="19">
         <v>12.32987509</v>
       </c>
-      <c r="O44" s="21">
+      <c r="O44" s="19">
         <v>54.6</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="27">
+      <c r="C45" s="25">
         <v>79.849999999999994</v>
       </c>
-      <c r="D45" s="27">
+      <c r="D45" s="25">
         <v>67.05</v>
       </c>
-      <c r="E45" s="27">
+      <c r="E45" s="25">
         <v>46.875</v>
       </c>
-      <c r="F45" s="28">
+      <c r="F45" s="26">
         <v>57</v>
       </c>
-      <c r="G45" s="27">
+      <c r="G45" s="25">
         <v>96.775000000000006</v>
       </c>
-      <c r="H45" s="27">
+      <c r="H45" s="25">
         <v>91.45</v>
       </c>
-      <c r="I45" s="27">
+      <c r="I45" s="25">
         <v>74.8</v>
       </c>
-      <c r="J45" s="28">
+      <c r="J45" s="26">
         <v>82.224999999999994</v>
       </c>
-      <c r="K45" s="27">
+      <c r="K45" s="25">
         <v>2784.6750000000002</v>
       </c>
-      <c r="L45" s="27">
+      <c r="L45" s="25">
         <v>5.3066651226000001</v>
       </c>
-      <c r="M45" s="27">
+      <c r="M45" s="25">
         <v>9300.5020000000004</v>
       </c>
-      <c r="N45" s="28">
+      <c r="N45" s="26">
         <v>25.856977423</v>
       </c>
-      <c r="O45" s="28">
+      <c r="O45" s="26">
         <v>42.15</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="18">
         <v>93.6</v>
       </c>
-      <c r="D46" s="20">
+      <c r="D46" s="18">
         <v>58.2</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="18">
         <v>3.2</v>
       </c>
-      <c r="F46" s="21">
+      <c r="F46" s="19">
         <v>38.299999999999997</v>
       </c>
-      <c r="G46" s="20">
+      <c r="G46" s="18">
         <v>93.9</v>
       </c>
-      <c r="H46" s="20">
+      <c r="H46" s="18">
         <v>73.599999999999994</v>
       </c>
-      <c r="I46" s="20">
+      <c r="I46" s="18">
         <v>58.7</v>
       </c>
-      <c r="J46" s="21">
+      <c r="J46" s="19">
         <v>70.2</v>
       </c>
-      <c r="K46" s="20">
+      <c r="K46" s="18">
         <v>17.082999999999998</v>
       </c>
-      <c r="L46" s="20">
+      <c r="L46" s="18">
         <v>3.2326187370000001</v>
       </c>
-      <c r="M46" s="20">
+      <c r="M46" s="18">
         <v>94.254000000000005</v>
       </c>
-      <c r="N46" s="21">
+      <c r="N46" s="19">
         <v>17.835699030000001</v>
       </c>
-      <c r="O46" s="21">
+      <c r="O46" s="19">
         <v>20.7</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C47" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H47" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I47" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J47" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K47" s="20">
+      <c r="C47" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J47" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47" s="18">
         <v>45.872999999999998</v>
       </c>
-      <c r="L47" s="20">
+      <c r="L47" s="18">
         <v>8.4965891770000006</v>
       </c>
-      <c r="M47" s="20">
+      <c r="M47" s="18">
         <v>184.34899999999999</v>
       </c>
-      <c r="N47" s="21">
+      <c r="N47" s="19">
         <v>34.145090099999997</v>
       </c>
-      <c r="O47" s="21">
+      <c r="O47" s="19">
         <v>18.399999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="C48" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H48" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I48" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J48" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K48" s="20">
+      <c r="C48" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J48" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K48" s="12">
         <v>9.1479999999999997</v>
       </c>
-      <c r="L48" s="20">
+      <c r="L48" s="12">
         <v>1.239364873</v>
       </c>
-      <c r="M48" s="20">
+      <c r="M48" s="12">
         <v>45.686</v>
       </c>
-      <c r="N48" s="21">
+      <c r="N48" s="13">
         <v>6.1895084809999998</v>
       </c>
-      <c r="O48" s="21" t="s">
+      <c r="O48" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="18">
         <v>53.9</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D49" s="18">
         <v>36.200000000000003</v>
       </c>
-      <c r="E49" s="20">
+      <c r="E49" s="18">
         <v>8.1</v>
       </c>
-      <c r="F49" s="21">
+      <c r="F49" s="19">
         <v>18.100000000000001</v>
       </c>
-      <c r="G49" s="20">
+      <c r="G49" s="18">
         <v>96.2</v>
       </c>
-      <c r="H49" s="20">
+      <c r="H49" s="18">
         <v>78.8</v>
       </c>
-      <c r="I49" s="20">
+      <c r="I49" s="18">
         <v>40.5</v>
       </c>
-      <c r="J49" s="21">
+      <c r="J49" s="19">
         <v>53.7</v>
       </c>
-      <c r="K49" s="20">
+      <c r="K49" s="18">
         <v>154.566</v>
       </c>
-      <c r="L49" s="20">
+      <c r="L49" s="18">
         <v>13.29935201</v>
       </c>
-      <c r="M49" s="20">
+      <c r="M49" s="18">
         <v>211.334</v>
       </c>
-      <c r="N49" s="21">
+      <c r="N49" s="19">
         <v>18.183851929999999</v>
       </c>
-      <c r="O49" s="21">
+      <c r="O49" s="19">
         <v>30.4</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="C50" s="20">
+      <c r="C50" s="18">
         <v>100</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D50" s="18">
         <v>42.5</v>
       </c>
-      <c r="E50" s="20">
+      <c r="E50" s="18">
         <v>13.9</v>
       </c>
-      <c r="F50" s="21">
+      <c r="F50" s="19">
         <v>22.4</v>
       </c>
-      <c r="G50" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H50" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I50" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J50" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K50" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L50" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M50" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="N50" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="O50" s="21" t="s">
+      <c r="G50" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L50" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M50" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N50" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O50" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C51" s="16">
+      <c r="C51" s="15">
         <v>75.099999999999994</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D51" s="15">
         <v>47.9</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E51" s="15">
         <v>21.8</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F51" s="16">
         <v>33.200000000000003</v>
       </c>
-      <c r="G51" s="16">
+      <c r="G51" s="15">
         <v>92.9</v>
       </c>
-      <c r="H51" s="16">
+      <c r="H51" s="15">
         <v>85.3</v>
       </c>
-      <c r="I51" s="16">
+      <c r="I51" s="15">
         <v>53</v>
       </c>
-      <c r="J51" s="17">
+      <c r="J51" s="16">
         <v>64.900000000000006</v>
       </c>
-      <c r="K51" s="16">
+      <c r="K51" s="15">
         <v>96.647000000000006</v>
       </c>
-      <c r="L51" s="16">
+      <c r="L51" s="15">
         <v>0.97379184399999996</v>
       </c>
-      <c r="M51" s="16">
+      <c r="M51" s="15">
         <v>6674.7150000000001</v>
       </c>
-      <c r="N51" s="17">
+      <c r="N51" s="16">
         <v>67.252817210000003</v>
       </c>
-      <c r="O51" s="17">
+      <c r="O51" s="16">
         <v>51.9</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="18">
         <v>77.099999999999994</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D52" s="18">
         <v>20.9</v>
       </c>
-      <c r="E52" s="20">
+      <c r="E52" s="18">
         <v>15.5</v>
       </c>
-      <c r="F52" s="21">
+      <c r="F52" s="19">
         <v>19</v>
       </c>
-      <c r="G52" s="20">
+      <c r="G52" s="18">
         <v>100</v>
       </c>
-      <c r="H52" s="20">
+      <c r="H52" s="18">
         <v>78.099999999999994</v>
       </c>
-      <c r="I52" s="20">
+      <c r="I52" s="18">
         <v>52.7</v>
       </c>
-      <c r="J52" s="21">
+      <c r="J52" s="19">
         <v>58.5</v>
       </c>
-      <c r="K52" s="20">
+      <c r="K52" s="18">
         <v>50.63</v>
       </c>
-      <c r="L52" s="20">
+      <c r="L52" s="18">
         <v>53.08240721</v>
       </c>
-      <c r="M52" s="20">
+      <c r="M52" s="18">
         <v>67.23</v>
       </c>
-      <c r="N52" s="21">
+      <c r="N52" s="19">
         <v>70.486475150000004</v>
       </c>
-      <c r="O52" s="21">
+      <c r="O52" s="19">
         <v>18.100000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C53" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F53" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H53" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I53" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J53" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K53" s="20">
+      <c r="C53" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J53" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53" s="18">
         <v>10.628</v>
       </c>
-      <c r="L53" s="20">
+      <c r="L53" s="18">
         <v>24.70708574</v>
       </c>
-      <c r="M53" s="20">
+      <c r="M53" s="18">
         <v>21.893000000000001</v>
       </c>
-      <c r="N53" s="21">
+      <c r="N53" s="19">
         <v>50.895015809999997</v>
       </c>
-      <c r="O53" s="21" t="s">
+      <c r="O53" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="20">
+      <c r="C54" s="18">
         <v>15.5</v>
       </c>
-      <c r="D54" s="20">
+      <c r="D54" s="18">
         <v>24.7</v>
       </c>
-      <c r="E54" s="20">
+      <c r="E54" s="18">
         <v>7.1</v>
       </c>
-      <c r="F54" s="21">
+      <c r="F54" s="19">
         <v>13.3</v>
       </c>
-      <c r="G54" s="20">
+      <c r="G54" s="18">
         <v>82</v>
       </c>
-      <c r="H54" s="20">
+      <c r="H54" s="18">
         <v>59.7</v>
       </c>
-      <c r="I54" s="20">
+      <c r="I54" s="18">
         <v>35.799999999999997</v>
       </c>
-      <c r="J54" s="21">
+      <c r="J54" s="19">
         <v>47.3</v>
       </c>
-      <c r="K54" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L54" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M54" s="20">
+      <c r="K54" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L54" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M54" s="18">
         <v>8.7270000000000003</v>
       </c>
-      <c r="N54" s="21">
+      <c r="N54" s="19">
         <v>78.777757719999997</v>
       </c>
-      <c r="O54" s="21">
+      <c r="O54" s="19">
         <v>16.899999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A55" s="18" t="s">
+      <c r="A55" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C55" s="18">
         <v>72.099999999999994</v>
       </c>
-      <c r="D55" s="20">
+      <c r="D55" s="18">
         <v>43.2</v>
       </c>
-      <c r="E55" s="20">
+      <c r="E55" s="18">
         <v>35.9</v>
       </c>
-      <c r="F55" s="21">
+      <c r="F55" s="19">
         <v>42.2</v>
       </c>
-      <c r="G55" s="20">
+      <c r="G55" s="18">
         <v>91.8</v>
       </c>
-      <c r="H55" s="20">
+      <c r="H55" s="18">
         <v>78.3</v>
       </c>
-      <c r="I55" s="20">
+      <c r="I55" s="18">
         <v>60.2</v>
       </c>
-      <c r="J55" s="21">
+      <c r="J55" s="19">
         <v>69.599999999999994</v>
       </c>
-      <c r="K55" s="20">
+      <c r="K55" s="18">
         <v>197.210903</v>
       </c>
-      <c r="L55" s="20">
+      <c r="L55" s="18">
         <v>25.722733130000002</v>
       </c>
-      <c r="M55" s="20">
+      <c r="M55" s="18">
         <v>242.78924069999999</v>
       </c>
-      <c r="N55" s="21">
+      <c r="N55" s="19">
         <v>31.667634750000001</v>
       </c>
-      <c r="O55" s="21">
+      <c r="O55" s="19">
         <v>17.5</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="C56" s="20">
+      <c r="C56" s="18">
         <v>78.099999999999994</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D56" s="18">
         <v>52.3</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E56" s="18">
         <v>17.2</v>
       </c>
-      <c r="F56" s="21">
+      <c r="F56" s="19">
         <v>33</v>
       </c>
-      <c r="G56" s="20">
+      <c r="G56" s="18">
         <v>95.3</v>
       </c>
-      <c r="H56" s="20">
+      <c r="H56" s="18">
         <v>75.8</v>
       </c>
-      <c r="I56" s="20">
+      <c r="I56" s="18">
         <v>41.7</v>
       </c>
-      <c r="J56" s="21">
+      <c r="J56" s="19">
         <v>56.5</v>
       </c>
-      <c r="K56" s="20">
+      <c r="K56" s="18">
         <v>88.376000000000005</v>
       </c>
-      <c r="L56" s="20">
+      <c r="L56" s="18">
         <v>33.9036629</v>
       </c>
-      <c r="M56" s="20">
+      <c r="M56" s="18">
         <v>97.819000000000003</v>
       </c>
-      <c r="N56" s="21">
+      <c r="N56" s="19">
         <v>37.526278640000001</v>
       </c>
-      <c r="O56" s="21">
+      <c r="O56" s="19">
         <v>5.6</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C57" s="12">
         <v>69.8</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D57" s="12">
         <v>48.2</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E57" s="12">
         <v>14.8</v>
       </c>
-      <c r="F57" s="14">
+      <c r="F57" s="13">
         <v>22.3</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G57" s="12">
         <v>78.599999999999994</v>
       </c>
-      <c r="H57" s="13">
+      <c r="H57" s="12">
         <v>35.5</v>
       </c>
-      <c r="I57" s="13">
+      <c r="I57" s="12">
         <v>18.899999999999999</v>
       </c>
-      <c r="J57" s="14">
+      <c r="J57" s="13">
         <v>23.5</v>
       </c>
-      <c r="K57" s="13">
+      <c r="K57" s="12">
         <v>211.875</v>
       </c>
-      <c r="L57" s="13">
+      <c r="L57" s="12">
         <v>4.2810173980000004</v>
       </c>
-      <c r="M57" s="13">
+      <c r="M57" s="12">
         <v>1068.8800000000001</v>
       </c>
-      <c r="N57" s="14">
+      <c r="N57" s="13">
         <v>21.597139240000001</v>
       </c>
-      <c r="O57" s="14">
+      <c r="O57" s="13">
         <v>46.2</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A58" s="18" t="s">
+      <c r="A58" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="B58" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C58" s="20">
+      <c r="C58" s="18">
         <v>83</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D58" s="18">
         <v>58.9</v>
       </c>
-      <c r="E58" s="20">
+      <c r="E58" s="18">
         <v>15.5</v>
       </c>
-      <c r="F58" s="21">
+      <c r="F58" s="19">
         <v>34.6</v>
       </c>
-      <c r="G58" s="20">
+      <c r="G58" s="18">
         <v>97.4</v>
       </c>
-      <c r="H58" s="20">
+      <c r="H58" s="18">
         <v>85.9</v>
       </c>
-      <c r="I58" s="20">
+      <c r="I58" s="18">
         <v>50.2</v>
       </c>
-      <c r="J58" s="21">
+      <c r="J58" s="19">
         <v>64.7</v>
       </c>
-      <c r="K58" s="20">
+      <c r="K58" s="18">
         <v>140.71590760000001</v>
       </c>
-      <c r="L58" s="20">
+      <c r="L58" s="18">
         <v>9.9968232100000005</v>
       </c>
-      <c r="M58" s="20">
+      <c r="M58" s="18">
         <v>403.75243799999998</v>
       </c>
-      <c r="N58" s="21">
+      <c r="N58" s="19">
         <v>28.683620860000001</v>
       </c>
-      <c r="O58" s="21">
+      <c r="O58" s="19">
         <v>44.1</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A59" s="18" t="s">
+      <c r="A59" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="18">
         <v>41.1</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D59" s="18">
         <v>28.1</v>
       </c>
-      <c r="E59" s="20">
+      <c r="E59" s="18">
         <v>3.4</v>
       </c>
-      <c r="F59" s="21">
+      <c r="F59" s="19">
         <v>7</v>
       </c>
-      <c r="G59" s="20">
+      <c r="G59" s="18">
         <v>70.900000000000006</v>
       </c>
-      <c r="H59" s="20">
+      <c r="H59" s="18">
         <v>51.9</v>
       </c>
-      <c r="I59" s="20">
+      <c r="I59" s="18">
         <v>24.9</v>
       </c>
-      <c r="J59" s="21">
+      <c r="J59" s="19">
         <v>29.1</v>
       </c>
-      <c r="K59" s="20">
+      <c r="K59" s="18">
         <v>0.98899999999999999</v>
       </c>
-      <c r="L59" s="20">
+      <c r="L59" s="18">
         <v>1.3256484150000001</v>
       </c>
-      <c r="M59" s="20">
+      <c r="M59" s="18">
         <v>5.1539999999999999</v>
       </c>
-      <c r="N59" s="21">
+      <c r="N59" s="19">
         <v>6.9083841570000004</v>
       </c>
-      <c r="O59" s="21">
+      <c r="O59" s="19">
         <v>14.4</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C60" s="16">
+      <c r="C60" s="15">
         <v>49</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D60" s="15">
         <v>39.5</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E60" s="15">
         <v>19.600000000000001</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F60" s="16">
         <v>29.8</v>
       </c>
-      <c r="G60" s="16">
+      <c r="G60" s="15">
         <v>96.6</v>
       </c>
-      <c r="H60" s="16">
+      <c r="H60" s="15">
         <v>92.5</v>
       </c>
-      <c r="I60" s="16">
+      <c r="I60" s="15">
         <v>73.5</v>
       </c>
-      <c r="J60" s="17">
+      <c r="J60" s="16">
         <v>82.6</v>
       </c>
-      <c r="K60" s="16">
+      <c r="K60" s="15">
         <v>30.942</v>
       </c>
-      <c r="L60" s="16">
+      <c r="L60" s="15">
         <v>5.0722261929999997</v>
       </c>
-      <c r="M60" s="16">
+      <c r="M60" s="15">
         <v>208.97900000000001</v>
       </c>
-      <c r="N60" s="17">
+      <c r="N60" s="16">
         <v>34.257279990000001</v>
       </c>
-      <c r="O60" s="17">
+      <c r="O60" s="16">
         <v>23.2</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="C61" s="27">
+      <c r="C61" s="25">
         <v>67.358333333333405</v>
       </c>
-      <c r="D61" s="27">
+      <c r="D61" s="25">
         <v>41.716666666666697</v>
       </c>
-      <c r="E61" s="27">
+      <c r="E61" s="25">
         <v>14.6666666666667</v>
       </c>
-      <c r="F61" s="28">
+      <c r="F61" s="26">
         <v>26.1</v>
       </c>
-      <c r="G61" s="27">
+      <c r="G61" s="25">
         <v>90.509090909090901</v>
       </c>
-      <c r="H61" s="27">
+      <c r="H61" s="25">
         <v>72.309090909090898</v>
       </c>
-      <c r="I61" s="27">
+      <c r="I61" s="25">
         <v>46.372727272727303</v>
       </c>
-      <c r="J61" s="28">
+      <c r="J61" s="26">
         <v>56.4181818181818</v>
       </c>
-      <c r="K61" s="27">
+      <c r="K61" s="25">
         <v>1054.6838106</v>
       </c>
-      <c r="L61" s="27">
+      <c r="L61" s="25">
         <v>14.2564092951538</v>
       </c>
-      <c r="M61" s="27">
+      <c r="M61" s="25">
         <v>9335.5616786999999</v>
       </c>
-      <c r="N61" s="28">
+      <c r="N61" s="26">
         <v>36.029039504857202</v>
       </c>
-      <c r="O61" s="28">
+      <c r="O61" s="26">
         <v>25.616666666666699</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B62" s="32" t="s">
+      <c r="B62" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="C62" s="33">
+      <c r="C62" s="31">
         <v>69.099999999999994</v>
       </c>
-      <c r="D62" s="33">
+      <c r="D62" s="31">
         <v>46.914285714285697</v>
       </c>
-      <c r="E62" s="33">
+      <c r="E62" s="31">
         <v>24.328571428571401</v>
       </c>
-      <c r="F62" s="34">
+      <c r="F62" s="32">
         <v>33.18</v>
       </c>
-      <c r="G62" s="33">
+      <c r="G62" s="31">
         <v>89.084848484848493</v>
       </c>
-      <c r="H62" s="33">
+      <c r="H62" s="31">
         <v>76.384848484848504</v>
       </c>
-      <c r="I62" s="33">
+      <c r="I62" s="31">
         <v>52.181818181818201</v>
       </c>
-      <c r="J62" s="34">
+      <c r="J62" s="32">
         <v>60.569696969696999</v>
       </c>
-      <c r="K62" s="33">
+      <c r="K62" s="31">
         <v>5365.7078105999999</v>
       </c>
-      <c r="L62" s="33">
+      <c r="L62" s="31">
         <v>7.8643237860243902</v>
       </c>
-      <c r="M62" s="33">
+      <c r="M62" s="31">
         <v>27616.055678699999</v>
       </c>
-      <c r="N62" s="34">
+      <c r="N62" s="32">
         <v>26.771871642190501</v>
       </c>
-      <c r="O62" s="34">
+      <c r="O62" s="32">
         <v>29.765909090909101</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="31" t="s">
+      <c r="A63" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B63" s="32" t="s">
+      <c r="B63" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C63" s="33">
+      <c r="C63" s="31">
         <v>80.382142857142895</v>
       </c>
-      <c r="D63" s="33">
+      <c r="D63" s="31">
         <v>60.753571428571398</v>
       </c>
-      <c r="E63" s="33">
+      <c r="E63" s="31">
         <v>39.357142857142897</v>
       </c>
-      <c r="F63" s="34">
+      <c r="F63" s="32">
         <v>48.589285714285701</v>
       </c>
-      <c r="G63" s="33">
+      <c r="G63" s="31">
         <v>93.877777777777794</v>
       </c>
-      <c r="H63" s="33">
+      <c r="H63" s="31">
         <v>83.155555555555594</v>
       </c>
-      <c r="I63" s="33">
+      <c r="I63" s="31">
         <v>64.959259259259298</v>
       </c>
-      <c r="J63" s="34">
+      <c r="J63" s="32">
         <v>72.511111111111106</v>
       </c>
-      <c r="K63" s="33">
+      <c r="K63" s="31">
         <v>610395.89616020001</v>
       </c>
-      <c r="L63" s="33">
+      <c r="L63" s="31">
         <v>8.8506031121428599</v>
       </c>
-      <c r="M63" s="33">
+      <c r="M63" s="31">
         <v>3116591.4912488</v>
       </c>
-      <c r="N63" s="34">
+      <c r="N63" s="32">
         <v>29.365941595032801</v>
       </c>
-      <c r="O63" s="34">
+      <c r="O63" s="32">
         <v>64.945794392523396</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A64" s="35" t="s">
+      <c r="A64" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B64" s="36" t="s">
+      <c r="B64" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="C64" s="37">
+      <c r="C64" s="35">
         <v>88.981818181818198</v>
       </c>
-      <c r="D64" s="37">
+      <c r="D64" s="35">
         <v>74.090909090909093</v>
       </c>
-      <c r="E64" s="37">
+      <c r="E64" s="35">
         <v>49.554545454545497</v>
       </c>
-      <c r="F64" s="38">
+      <c r="F64" s="36">
         <v>59.1727272727273</v>
       </c>
-      <c r="G64" s="37">
+      <c r="G64" s="35">
         <v>98.73</v>
       </c>
-      <c r="H64" s="37">
+      <c r="H64" s="35">
         <v>95.88</v>
       </c>
-      <c r="I64" s="37">
+      <c r="I64" s="35">
         <v>78.790000000000006</v>
       </c>
-      <c r="J64" s="38">
+      <c r="J64" s="36">
         <v>84.87</v>
       </c>
-      <c r="K64" s="37">
+      <c r="K64" s="35">
         <v>9436.3366095000001</v>
       </c>
-      <c r="L64" s="37">
+      <c r="L64" s="35">
         <v>5.8138962134782597</v>
       </c>
-      <c r="M64" s="37">
+      <c r="M64" s="35">
         <v>53575.503535299998</v>
       </c>
-      <c r="N64" s="38">
+      <c r="N64" s="36">
         <v>21.5870773219333</v>
       </c>
-      <c r="O64" s="38">
+      <c r="O64" s="36">
         <v>48.859090909090902</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A65" s="35" t="s">
+      <c r="A65" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B65" s="39" t="s">
+      <c r="B65" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="C65" s="40">
+      <c r="C65" s="38">
         <v>75.6666666666667</v>
       </c>
-      <c r="D65" s="40">
+      <c r="D65" s="38">
         <v>47.325000000000003</v>
       </c>
-      <c r="E65" s="40">
+      <c r="E65" s="38">
         <v>27.358333333333299</v>
       </c>
-      <c r="F65" s="41">
+      <c r="F65" s="39">
         <v>36.924999999999997</v>
       </c>
-      <c r="G65" s="40">
+      <c r="G65" s="38">
         <v>92.875</v>
       </c>
-      <c r="H65" s="40">
+      <c r="H65" s="38">
         <v>70.391666666666694</v>
       </c>
-      <c r="I65" s="40">
+      <c r="I65" s="38">
         <v>48.783333333333303</v>
       </c>
-      <c r="J65" s="41">
+      <c r="J65" s="39">
         <v>58.55</v>
       </c>
-      <c r="K65" s="40">
+      <c r="K65" s="38">
         <v>133993.53652170001</v>
       </c>
-      <c r="L65" s="40">
+      <c r="L65" s="38">
         <v>7.1313346413333303</v>
       </c>
-      <c r="M65" s="40">
+      <c r="M65" s="38">
         <v>365355.84289600002</v>
       </c>
-      <c r="N65" s="41">
+      <c r="N65" s="39">
         <v>22.645341613239999</v>
       </c>
-      <c r="O65" s="41">
+      <c r="O65" s="39">
         <v>44.869230769230803</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="35" t="s">
+      <c r="A66" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B66" s="42" t="s">
+      <c r="B66" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="C66" s="43">
+      <c r="C66" s="41">
         <v>74.1142857142857</v>
       </c>
-      <c r="D66" s="43">
+      <c r="D66" s="41">
         <v>53.065079365079399</v>
       </c>
-      <c r="E66" s="43">
+      <c r="E66" s="41">
         <v>31.007936507936499</v>
       </c>
-      <c r="F66" s="44">
+      <c r="F66" s="42">
         <v>40.028571428571396</v>
       </c>
-      <c r="G66" s="43">
+      <c r="G66" s="41">
         <v>91.241666666666703</v>
       </c>
-      <c r="H66" s="43">
+      <c r="H66" s="41">
         <v>79.4316666666667</v>
       </c>
-      <c r="I66" s="43">
+      <c r="I66" s="41">
         <v>57.9316666666667</v>
       </c>
-      <c r="J66" s="44">
+      <c r="J66" s="42">
         <v>65.9433333333333</v>
       </c>
-      <c r="K66" s="43">
+      <c r="K66" s="41">
         <v>615761.60397079994</v>
       </c>
-      <c r="L66" s="43">
+      <c r="L66" s="41">
         <v>8.5736342602876707</v>
       </c>
-      <c r="M66" s="43">
+      <c r="M66" s="41">
         <v>3144207.5469275001</v>
       </c>
-      <c r="N66" s="44">
+      <c r="N66" s="42">
         <v>28.701606607109799</v>
       </c>
-      <c r="O66" s="44">
+      <c r="O66" s="42">
         <v>54.694701986755</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A67" s="35" t="s">
+      <c r="A67" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B67" s="39" t="s">
+      <c r="B67" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="C67" s="40">
+      <c r="C67" s="38">
         <v>71.728571428571399</v>
       </c>
-      <c r="D67" s="40">
+      <c r="D67" s="38">
         <v>51.971428571428604</v>
       </c>
-      <c r="E67" s="40">
+      <c r="E67" s="38">
         <v>32.178571428571402</v>
       </c>
-      <c r="F67" s="41">
+      <c r="F67" s="39">
         <v>40.228571428571399</v>
       </c>
-      <c r="G67" s="40">
+      <c r="G67" s="38">
         <v>90.314285714285703</v>
       </c>
-      <c r="H67" s="40">
+      <c r="H67" s="38">
         <v>79.185714285714297</v>
       </c>
-      <c r="I67" s="40">
+      <c r="I67" s="38">
         <v>57.107142857142897</v>
       </c>
-      <c r="J67" s="41">
+      <c r="J67" s="39">
         <v>65.407142857142901</v>
       </c>
-      <c r="K67" s="40">
+      <c r="K67" s="38">
         <v>2383.944</v>
       </c>
-      <c r="L67" s="40">
+      <c r="L67" s="38">
         <v>6.1619920831249999</v>
       </c>
-      <c r="M67" s="40">
+      <c r="M67" s="38">
         <v>6202.4120000000003</v>
       </c>
-      <c r="N67" s="41">
+      <c r="N67" s="39">
         <v>18.650378491800002</v>
       </c>
-      <c r="O67" s="41">
+      <c r="O67" s="39">
         <v>30.422222222222199</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A68" s="35" t="s">
+      <c r="A68" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B68" s="39" t="s">
+      <c r="B68" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="C68" s="40">
+      <c r="C68" s="38">
         <v>72.988888888888894</v>
       </c>
-      <c r="D68" s="40">
+      <c r="D68" s="38">
         <v>48.6666666666667</v>
       </c>
-      <c r="E68" s="40">
+      <c r="E68" s="38">
         <v>25.4444444444445</v>
       </c>
-      <c r="F68" s="41">
+      <c r="F68" s="39">
         <v>35.711111111111101</v>
       </c>
-      <c r="G68" s="40">
+      <c r="G68" s="38">
         <v>91.1</v>
       </c>
-      <c r="H68" s="40">
+      <c r="H68" s="38">
         <v>77.452941176470603</v>
       </c>
-      <c r="I68" s="40">
+      <c r="I68" s="38">
         <v>53.941176470588204</v>
       </c>
-      <c r="J68" s="41">
+      <c r="J68" s="39">
         <v>62.688235294117703</v>
       </c>
-      <c r="K68" s="40">
+      <c r="K68" s="38">
         <v>3870.5898106</v>
       </c>
-      <c r="L68" s="40">
+      <c r="L68" s="38">
         <v>12.3517488510526</v>
       </c>
-      <c r="M68" s="40">
+      <c r="M68" s="38">
         <v>16449.7426787</v>
       </c>
-      <c r="N68" s="41">
+      <c r="N68" s="39">
         <v>28.058607543555599</v>
       </c>
-      <c r="O68" s="41">
+      <c r="O68" s="39">
         <v>27.984999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A69" s="35" t="s">
+      <c r="A69" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B69" s="39" t="s">
+      <c r="B69" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="C69" s="40">
+      <c r="C69" s="38">
         <v>69.8</v>
       </c>
-      <c r="D69" s="40">
+      <c r="D69" s="38">
         <v>46.58</v>
       </c>
-      <c r="E69" s="40">
+      <c r="E69" s="38">
         <v>20.98</v>
       </c>
-      <c r="F69" s="41">
+      <c r="F69" s="39">
         <v>28.06</v>
       </c>
-      <c r="G69" s="40">
+      <c r="G69" s="38">
         <v>85.96</v>
       </c>
-      <c r="H69" s="40">
+      <c r="H69" s="38">
         <v>70.08</v>
       </c>
-      <c r="I69" s="40">
+      <c r="I69" s="38">
         <v>43.94</v>
       </c>
-      <c r="J69" s="41">
+      <c r="J69" s="39">
         <v>52.08</v>
       </c>
-      <c r="K69" s="40">
+      <c r="K69" s="38">
         <v>699.79200000000003</v>
       </c>
-      <c r="L69" s="40">
+      <c r="L69" s="38">
         <v>3.0426021714</v>
       </c>
-      <c r="M69" s="40">
+      <c r="M69" s="38">
         <v>2129.1219999999998</v>
       </c>
-      <c r="N69" s="41">
+      <c r="N69" s="39">
         <v>28.9695663778</v>
       </c>
-      <c r="O69" s="41">
+      <c r="O69" s="39">
         <v>31.42</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A70" s="35" t="s">
+      <c r="A70" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B70" s="39" t="s">
+      <c r="B70" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="C70" s="40">
+      <c r="C70" s="38">
         <v>56.274999999999999</v>
       </c>
-      <c r="D70" s="40">
+      <c r="D70" s="38">
         <v>28.875</v>
       </c>
-      <c r="E70" s="40">
+      <c r="E70" s="38">
         <v>13.8</v>
       </c>
-      <c r="F70" s="41">
+      <c r="F70" s="39">
         <v>18.675000000000001</v>
       </c>
-      <c r="G70" s="40">
+      <c r="G70" s="38">
         <v>85.8</v>
       </c>
-      <c r="H70" s="40">
+      <c r="H70" s="38">
         <v>68.2</v>
       </c>
-      <c r="I70" s="40">
+      <c r="I70" s="38">
         <v>36.35</v>
       </c>
-      <c r="J70" s="41">
+      <c r="J70" s="39">
         <v>44.424999999999997</v>
       </c>
-      <c r="K70" s="40">
+      <c r="K70" s="38">
         <v>180.63900000000001</v>
       </c>
-      <c r="L70" s="40">
+      <c r="L70" s="38">
         <v>3.1680621886</v>
       </c>
-      <c r="M70" s="40">
+      <c r="M70" s="38">
         <v>773.88400000000001</v>
       </c>
-      <c r="N70" s="41">
+      <c r="N70" s="39">
         <v>10.394710954000001</v>
       </c>
-      <c r="O70" s="41">
+      <c r="O70" s="39">
         <v>21.112500000000001</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A71" s="35" t="s">
+      <c r="A71" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B71" s="39" t="s">
+      <c r="B71" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="C71" s="40">
+      <c r="C71" s="38">
         <v>67.358333333333405</v>
       </c>
-      <c r="D71" s="40">
+      <c r="D71" s="38">
         <v>41.716666666666697</v>
       </c>
-      <c r="E71" s="40">
+      <c r="E71" s="38">
         <v>14.6666666666667</v>
       </c>
-      <c r="F71" s="41">
+      <c r="F71" s="39">
         <v>26.1</v>
       </c>
-      <c r="G71" s="40">
+      <c r="G71" s="38">
         <v>90.509090909090901</v>
       </c>
-      <c r="H71" s="40">
+      <c r="H71" s="38">
         <v>72.309090909090898</v>
       </c>
-      <c r="I71" s="40">
+      <c r="I71" s="38">
         <v>46.372727272727303</v>
       </c>
-      <c r="J71" s="41">
+      <c r="J71" s="39">
         <v>56.4181818181818</v>
       </c>
-      <c r="K71" s="40">
+      <c r="K71" s="38">
         <v>1054.6838106</v>
       </c>
-      <c r="L71" s="40">
+      <c r="L71" s="38">
         <v>14.2564092951538</v>
       </c>
-      <c r="M71" s="40">
+      <c r="M71" s="38">
         <v>9335.5616786999999</v>
       </c>
-      <c r="N71" s="41">
+      <c r="N71" s="39">
         <v>36.029039504857202</v>
       </c>
-      <c r="O71" s="41">
+      <c r="O71" s="39">
         <v>25.616666666666699</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A72" s="35" t="s">
+      <c r="A72" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B72" s="39" t="s">
+      <c r="B72" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="C72" s="40">
+      <c r="C72" s="38">
         <v>68.283333333333402</v>
       </c>
-      <c r="D72" s="40">
+      <c r="D72" s="38">
         <v>55.4</v>
       </c>
-      <c r="E72" s="40">
+      <c r="E72" s="38">
         <v>31.683333333333302</v>
       </c>
-      <c r="F72" s="41">
+      <c r="F72" s="39">
         <v>38.716666666666697</v>
       </c>
-      <c r="G72" s="40">
+      <c r="G72" s="38">
         <v>83.183333333333394</v>
       </c>
-      <c r="H72" s="40">
+      <c r="H72" s="38">
         <v>77.866666666666703</v>
       </c>
-      <c r="I72" s="40">
+      <c r="I72" s="38">
         <v>55.6</v>
       </c>
-      <c r="J72" s="41">
+      <c r="J72" s="39">
         <v>62.6666666666667</v>
       </c>
-      <c r="K72" s="40">
+      <c r="K72" s="38">
         <v>896.46400000000006</v>
       </c>
-      <c r="L72" s="40">
+      <c r="L72" s="38">
         <v>4.1905404251666702</v>
       </c>
-      <c r="M72" s="40">
+      <c r="M72" s="38">
         <v>2132.7420000000002</v>
       </c>
-      <c r="N72" s="41">
+      <c r="N72" s="39">
         <v>28.8329277522</v>
       </c>
-      <c r="O72" s="41">
+      <c r="O72" s="39">
         <v>32.159999999999997</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A73" s="35" t="s">
+      <c r="A73" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B73" s="39" t="s">
+      <c r="B73" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="C73" s="40">
+      <c r="C73" s="38">
         <v>69.47</v>
       </c>
-      <c r="D73" s="40">
+      <c r="D73" s="38">
         <v>46.45</v>
       </c>
-      <c r="E73" s="40">
+      <c r="E73" s="38">
         <v>25.53</v>
       </c>
-      <c r="F73" s="41">
+      <c r="F73" s="39">
         <v>33.01</v>
       </c>
-      <c r="G73" s="40">
+      <c r="G73" s="38">
         <v>87.9444444444445</v>
       </c>
-      <c r="H73" s="40">
+      <c r="H73" s="38">
         <v>76.477777777777803</v>
       </c>
-      <c r="I73" s="40">
+      <c r="I73" s="38">
         <v>50.811111111111103</v>
       </c>
-      <c r="J73" s="41">
+      <c r="J73" s="39">
         <v>58.5555555555556</v>
       </c>
-      <c r="K73" s="40">
+      <c r="K73" s="38">
         <v>472.04599999999999</v>
       </c>
-      <c r="L73" s="40">
+      <c r="L73" s="38">
         <v>5.4021724022857196</v>
       </c>
-      <c r="M73" s="40">
+      <c r="M73" s="38">
         <v>6117.9409999999998</v>
       </c>
-      <c r="N73" s="41">
+      <c r="N73" s="39">
         <v>20.4864718500667</v>
       </c>
-      <c r="O73" s="41">
+      <c r="O73" s="39">
         <v>30.566666666666698</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A74" s="35" t="s">
+      <c r="A74" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B74" s="39" t="s">
+      <c r="B74" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="C74" s="40">
+      <c r="C74" s="38">
         <v>75.900000000000006</v>
       </c>
-      <c r="D74" s="40">
+      <c r="D74" s="38">
         <v>65.033333333333402</v>
       </c>
-      <c r="E74" s="40">
+      <c r="E74" s="38">
         <v>49.9</v>
       </c>
-      <c r="F74" s="41">
+      <c r="F74" s="39">
         <v>58.766666666666701</v>
       </c>
-      <c r="G74" s="40">
+      <c r="G74" s="38">
         <v>96.766666666666694</v>
       </c>
-      <c r="H74" s="40">
+      <c r="H74" s="38">
         <v>95.633333333333297</v>
       </c>
-      <c r="I74" s="40">
+      <c r="I74" s="38">
         <v>85.866666666666703</v>
       </c>
-      <c r="J74" s="41">
+      <c r="J74" s="39">
         <v>90.966666666666697</v>
       </c>
-      <c r="K74" s="40">
+      <c r="K74" s="38">
         <v>1948.2750000000001</v>
       </c>
-      <c r="L74" s="40">
+      <c r="L74" s="38">
         <v>5.7986175252500001</v>
       </c>
-      <c r="M74" s="40">
+      <c r="M74" s="38">
         <v>7294.5020000000004</v>
       </c>
-      <c r="N74" s="41">
+      <c r="N74" s="39">
         <v>30.319265730000001</v>
       </c>
-      <c r="O74" s="41">
+      <c r="O74" s="39">
         <v>43.26</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="35" t="s">
+      <c r="A75" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B75" s="42" t="s">
+      <c r="B75" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="C75" s="43">
+      <c r="C75" s="41">
         <v>70.400000000000006</v>
       </c>
-      <c r="D75" s="43">
+      <c r="D75" s="41">
         <v>52.6</v>
       </c>
-      <c r="E75" s="43">
+      <c r="E75" s="41">
         <v>32.299999999999997</v>
       </c>
-      <c r="F75" s="44">
+      <c r="F75" s="42">
         <v>40.299999999999997</v>
       </c>
-      <c r="G75" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="H75" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="I75" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="J75" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="K75" s="43">
+      <c r="G75" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="H75" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="I75" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="J75" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="K75" s="41">
         <v>64.677999999999997</v>
       </c>
-      <c r="L75" s="43">
+      <c r="L75" s="41">
         <v>6.9290673623999997</v>
       </c>
-      <c r="M75" s="43">
+      <c r="M75" s="41">
         <v>186.37</v>
       </c>
-      <c r="N75" s="44">
+      <c r="N75" s="42">
         <v>15.6592455292</v>
       </c>
-      <c r="O75" s="44">
+      <c r="O75" s="42">
         <v>23.05</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A76" s="35" t="s">
+      <c r="A76" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B76" s="39" t="s">
+      <c r="B76" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="C76" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="D76" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="E76" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="F76" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="H76" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="I76" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="J76" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="K76" s="40">
+      <c r="C76" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H76" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="I76" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="J76" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="K76" s="38">
         <v>26604.893561699999</v>
       </c>
-      <c r="L76" s="40">
+      <c r="L76" s="38">
         <v>4.62196136277778</v>
       </c>
-      <c r="M76" s="40">
+      <c r="M76" s="38">
         <v>185416.279236</v>
       </c>
-      <c r="N76" s="41">
+      <c r="N76" s="39">
         <v>22.782941834100001</v>
       </c>
-      <c r="O76" s="41">
+      <c r="O76" s="39">
         <v>55.977777777777803</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A77" s="35" t="s">
+      <c r="A77" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B77" s="39" t="s">
+      <c r="B77" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="C77" s="40">
+      <c r="C77" s="38">
         <v>91.383333333333297</v>
       </c>
-      <c r="D77" s="40">
+      <c r="D77" s="38">
         <v>80.2</v>
       </c>
-      <c r="E77" s="40">
+      <c r="E77" s="38">
         <v>62.883333333333297</v>
       </c>
-      <c r="F77" s="41">
+      <c r="F77" s="39">
         <v>70.8</v>
       </c>
-      <c r="G77" s="40">
+      <c r="G77" s="38">
         <v>98.68</v>
       </c>
-      <c r="H77" s="40">
+      <c r="H77" s="38">
         <v>95.42</v>
       </c>
-      <c r="I77" s="40">
+      <c r="I77" s="38">
         <v>85.68</v>
       </c>
-      <c r="J77" s="41">
+      <c r="J77" s="39">
         <v>89.76</v>
       </c>
-      <c r="K77" s="40">
+      <c r="K77" s="38">
         <v>6164.34</v>
       </c>
-      <c r="L77" s="40">
+      <c r="L77" s="38">
         <v>5.07747394945455</v>
       </c>
-      <c r="M77" s="40">
+      <c r="M77" s="38">
         <v>38377.163</v>
       </c>
-      <c r="N77" s="41">
+      <c r="N77" s="39">
         <v>34.171868289090902</v>
       </c>
-      <c r="O77" s="41">
+      <c r="O77" s="39">
         <v>52.48</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A78" s="35" t="s">
+      <c r="A78" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B78" s="39" t="s">
+      <c r="B78" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="C78" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="D78" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="F78" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="H78" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="I78" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="J78" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="K78" s="40">
+      <c r="C78" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G78" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="J78" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="K78" s="38">
         <v>313580.73463299999</v>
       </c>
-      <c r="L78" s="40">
+      <c r="L78" s="38">
         <v>12.534985915307701</v>
       </c>
-      <c r="M78" s="40">
+      <c r="M78" s="38">
         <v>1292683.7409729999</v>
       </c>
-      <c r="N78" s="41">
+      <c r="N78" s="39">
         <v>44.467185498740797</v>
       </c>
-      <c r="O78" s="41">
+      <c r="O78" s="39">
         <v>84.325925925926001</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="35" t="s">
+      <c r="A79" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B79" s="42" t="s">
+      <c r="B79" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="C79" s="43">
+      <c r="C79" s="41">
         <v>91.9</v>
       </c>
-      <c r="D79" s="43">
+      <c r="D79" s="41">
         <v>83.25</v>
       </c>
-      <c r="E79" s="43">
+      <c r="E79" s="41">
         <v>65.900000000000006</v>
       </c>
-      <c r="F79" s="44">
+      <c r="F79" s="42">
         <v>71.900000000000006</v>
       </c>
-      <c r="G79" s="43">
+      <c r="G79" s="41">
         <v>96.25</v>
       </c>
-      <c r="H79" s="43">
+      <c r="H79" s="41">
         <v>97</v>
       </c>
-      <c r="I79" s="43">
+      <c r="I79" s="41">
         <v>91.7</v>
       </c>
-      <c r="J79" s="44">
+      <c r="J79" s="42">
         <v>93.6</v>
       </c>
-      <c r="K79" s="43">
+      <c r="K79" s="41">
         <v>416753.59338450001</v>
       </c>
-      <c r="L79" s="43">
+      <c r="L79" s="41">
         <v>10.295232772722199</v>
       </c>
-      <c r="M79" s="43">
+      <c r="M79" s="41">
         <v>2488901.1374169998</v>
       </c>
-      <c r="N79" s="44">
+      <c r="N79" s="42">
         <v>43.994171738842098</v>
       </c>
-      <c r="O79" s="44">
+      <c r="O79" s="42">
         <v>84.047368421052695</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A80" s="35" t="s">
+      <c r="A80" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B80" s="39" t="s">
+      <c r="B80" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="C80" s="40">
+      <c r="C80" s="38">
         <v>67</v>
       </c>
-      <c r="D80" s="40">
+      <c r="D80" s="38">
         <v>37.766666666666701</v>
       </c>
-      <c r="E80" s="40">
+      <c r="E80" s="38">
         <v>15.2</v>
       </c>
-      <c r="F80" s="41">
+      <c r="F80" s="39">
         <v>24.133333333333301</v>
       </c>
-      <c r="G80" s="40">
+      <c r="G80" s="38">
         <v>85.766666666666694</v>
       </c>
-      <c r="H80" s="40">
+      <c r="H80" s="38">
         <v>60.6666666666667</v>
       </c>
-      <c r="I80" s="40">
+      <c r="I80" s="38">
         <v>36.266666666666701</v>
       </c>
-      <c r="J80" s="41">
+      <c r="J80" s="39">
         <v>43.566666666666698</v>
       </c>
-      <c r="K80" s="40">
-        <v>334.49700000000001</v>
-      </c>
-      <c r="L80" s="40">
-        <v>4.3615687382499999</v>
-      </c>
-      <c r="M80" s="40">
-        <v>3353.085</v>
-      </c>
-      <c r="N80" s="41">
-        <v>28.901061323499999</v>
-      </c>
-      <c r="O80" s="41">
+      <c r="K80" s="38">
+        <v>343.64499999999998</v>
+      </c>
+      <c r="L80" s="38">
+        <v>3.7371279652</v>
+      </c>
+      <c r="M80" s="38">
+        <v>3398.7710000000002</v>
+      </c>
+      <c r="N80" s="39">
+        <v>24.358750754999999</v>
+      </c>
+      <c r="O80" s="39">
         <v>30.887499999999999</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A81" s="35" t="s">
+      <c r="A81" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B81" s="39" t="s">
+      <c r="B81" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="C81" s="40">
+      <c r="C81" s="38">
         <v>78.216666666666697</v>
       </c>
-      <c r="D81" s="40">
+      <c r="D81" s="38">
         <v>57.85</v>
       </c>
-      <c r="E81" s="40">
+      <c r="E81" s="38">
         <v>40.316666666666698</v>
       </c>
-      <c r="F81" s="41">
+      <c r="F81" s="39">
         <v>46.5833333333333</v>
       </c>
-      <c r="G81" s="40">
+      <c r="G81" s="38">
         <v>91.84</v>
       </c>
-      <c r="H81" s="40">
+      <c r="H81" s="38">
         <v>75.12</v>
       </c>
-      <c r="I81" s="40">
+      <c r="I81" s="38">
         <v>57.86</v>
       </c>
-      <c r="J81" s="41">
+      <c r="J81" s="39">
         <v>63.3</v>
       </c>
-      <c r="K81" s="40">
+      <c r="K81" s="38">
         <v>17435.443571</v>
       </c>
-      <c r="L81" s="40">
+      <c r="L81" s="38">
         <v>7.6521986421538504</v>
       </c>
-      <c r="M81" s="40">
-        <v>47174.801339999998</v>
-      </c>
-      <c r="N81" s="41">
-        <v>19.4266920019375</v>
-      </c>
-      <c r="O81" s="41">
-        <v>58.125</v>
+      <c r="M81" s="38">
+        <v>47432.557724500002</v>
+      </c>
+      <c r="N81" s="39">
+        <v>22.641033643588202</v>
+      </c>
+      <c r="O81" s="39">
+        <v>58.217647058823601</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A82" s="35" t="s">
+      <c r="A82" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B82" s="39" t="s">
+      <c r="B82" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="C82" s="40">
+      <c r="C82" s="38">
         <v>69.296875</v>
       </c>
-      <c r="D82" s="40">
+      <c r="D82" s="38">
         <v>47.771875000000001</v>
       </c>
-      <c r="E82" s="40">
+      <c r="E82" s="38">
         <v>25.184374999999999</v>
       </c>
-      <c r="F82" s="41">
+      <c r="F82" s="39">
         <v>34.028125000000003</v>
       </c>
-      <c r="G82" s="40">
+      <c r="G82" s="38">
         <v>89.4166666666667</v>
       </c>
-      <c r="H82" s="40">
+      <c r="H82" s="38">
         <v>77.956666666666706</v>
       </c>
-      <c r="I82" s="40">
+      <c r="I82" s="38">
         <v>53.773333333333397</v>
       </c>
-      <c r="J82" s="41">
+      <c r="J82" s="39">
         <v>62.27</v>
       </c>
-      <c r="K82" s="40">
-        <v>5031.2108105999996</v>
-      </c>
-      <c r="L82" s="40">
-        <v>8.2430000074054099</v>
-      </c>
-      <c r="M82" s="40">
-        <v>24262.9706787</v>
-      </c>
-      <c r="N82" s="41">
-        <v>26.547746412578999</v>
-      </c>
-      <c r="O82" s="41">
+      <c r="K82" s="38">
+        <v>5022.0628106000004</v>
+      </c>
+      <c r="L82" s="38">
+        <v>8.4375454278055599</v>
+      </c>
+      <c r="M82" s="38">
+        <v>24217.284678700002</v>
+      </c>
+      <c r="N82" s="39">
+        <v>27.0979690593784</v>
+      </c>
+      <c r="O82" s="39">
         <v>29.516666666666701</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="35" t="s">
+      <c r="A83" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B83" s="42" t="s">
+      <c r="B83" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="C83" s="43">
+      <c r="C83" s="41">
         <v>80.972727272727298</v>
       </c>
-      <c r="D83" s="43">
+      <c r="D83" s="41">
         <v>61.545454545454497</v>
       </c>
-      <c r="E83" s="43">
+      <c r="E83" s="41">
         <v>39.095454545454601</v>
       </c>
-      <c r="F83" s="44">
+      <c r="F83" s="42">
         <v>49.136363636363598</v>
       </c>
-      <c r="G83" s="43">
+      <c r="G83" s="41">
         <v>94.340909090909093</v>
       </c>
-      <c r="H83" s="43">
+      <c r="H83" s="41">
         <v>84.981818181818198</v>
       </c>
-      <c r="I83" s="43">
+      <c r="I83" s="41">
         <v>66.572727272727306</v>
       </c>
-      <c r="J83" s="44">
+      <c r="J83" s="42">
         <v>74.604545454545502</v>
       </c>
-      <c r="K83" s="43">
+      <c r="K83" s="41">
         <v>592960.45258919999</v>
       </c>
-      <c r="L83" s="43">
+      <c r="L83" s="41">
         <v>9.0199428742065209</v>
       </c>
-      <c r="M83" s="43">
-        <v>3069416.6899088002</v>
-      </c>
-      <c r="N83" s="44">
-        <v>30.866205684556601</v>
-      </c>
-      <c r="O83" s="44">
-        <v>66.145054945054994</v>
+      <c r="M83" s="41">
+        <v>3069158.9335242999</v>
+      </c>
+      <c r="N83" s="42">
+        <v>30.454736215742901</v>
+      </c>
+      <c r="O83" s="42">
+        <v>66.216666666666697</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A84" s="35" t="s">
+      <c r="A84" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B84" s="39" t="s">
+      <c r="B84" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="C84" s="40">
+      <c r="C84" s="38">
         <v>63.605882352941201</v>
       </c>
-      <c r="D84" s="40">
+      <c r="D84" s="38">
         <v>41.241176470588201</v>
       </c>
-      <c r="E84" s="40">
+      <c r="E84" s="38">
         <v>20.382352941176499</v>
       </c>
-      <c r="F84" s="41">
+      <c r="F84" s="39">
         <v>28.105882352941201</v>
       </c>
-      <c r="G84" s="40">
+      <c r="G84" s="38">
         <v>85.653333333333407</v>
       </c>
-      <c r="H84" s="40">
+      <c r="H84" s="38">
         <v>73.546666666666695</v>
       </c>
-      <c r="I84" s="40">
+      <c r="I84" s="38">
         <v>47.706666666666699</v>
       </c>
-      <c r="J84" s="41">
+      <c r="J84" s="39">
         <v>56.026666666666699</v>
       </c>
-      <c r="K84" s="40">
+      <c r="K84" s="38">
         <v>796.76090299999998</v>
       </c>
-      <c r="L84" s="40">
+      <c r="L84" s="38">
         <v>12.203208196812501</v>
       </c>
-      <c r="M84" s="40">
+      <c r="M84" s="38">
         <v>2004.7982407</v>
       </c>
-      <c r="N84" s="41">
+      <c r="N84" s="39">
         <v>32.4191310514706</v>
       </c>
-      <c r="O84" s="41">
+      <c r="O84" s="39">
         <v>18.352941176470601</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A85" s="35" t="s">
+      <c r="A85" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B85" s="39" t="s">
+      <c r="B85" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="C85" s="40">
+      <c r="C85" s="38">
         <v>71.25</v>
       </c>
-      <c r="D85" s="40">
+      <c r="D85" s="38">
         <v>42.95</v>
       </c>
-      <c r="E85" s="40">
+      <c r="E85" s="38">
         <v>14.65</v>
       </c>
-      <c r="F85" s="41">
+      <c r="F85" s="39">
         <v>21.4</v>
       </c>
-      <c r="G85" s="40">
+      <c r="G85" s="38">
         <v>97.55</v>
       </c>
-      <c r="H85" s="40">
+      <c r="H85" s="38">
         <v>68.650000000000006</v>
       </c>
-      <c r="I85" s="40">
+      <c r="I85" s="38">
         <v>35.299999999999997</v>
       </c>
-      <c r="J85" s="41">
+      <c r="J85" s="39">
         <v>43.35</v>
       </c>
-      <c r="K85" s="40">
+      <c r="K85" s="38">
         <v>53.747999999999998</v>
       </c>
-      <c r="L85" s="40">
+      <c r="L85" s="38">
         <v>8.2445193000000003</v>
       </c>
-      <c r="M85" s="40">
+      <c r="M85" s="38">
         <v>214.29300000000001</v>
       </c>
-      <c r="N85" s="41">
+      <c r="N85" s="39">
         <v>32.870856109999998</v>
       </c>
-      <c r="O85" s="41">
+      <c r="O85" s="39">
         <v>18.899999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A86" s="35" t="s">
+      <c r="A86" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B86" s="39" t="s">
+      <c r="B86" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="C86" s="40">
+      <c r="C86" s="38">
         <v>72.811764705882396</v>
       </c>
-      <c r="D86" s="40">
+      <c r="D86" s="38">
         <v>51.835294117647102</v>
       </c>
-      <c r="E86" s="40">
+      <c r="E86" s="38">
         <v>27.829411764705899</v>
       </c>
-      <c r="F86" s="41">
+      <c r="F86" s="39">
         <v>37.888235294117699</v>
       </c>
-      <c r="G86" s="40">
+      <c r="G86" s="38">
         <v>91.470588235294201</v>
       </c>
-      <c r="H86" s="40">
+      <c r="H86" s="38">
         <v>77.900000000000006</v>
       </c>
-      <c r="I86" s="40">
+      <c r="I86" s="38">
         <v>54.864705882353</v>
       </c>
-      <c r="J86" s="41">
+      <c r="J86" s="39">
         <v>63.547058823529397</v>
       </c>
-      <c r="K86" s="40">
+      <c r="K86" s="38">
         <v>4383.1659075999996</v>
       </c>
-      <c r="L86" s="40">
+      <c r="L86" s="38">
         <v>5.5706391909999997</v>
       </c>
-      <c r="M86" s="40">
+      <c r="M86" s="38">
         <v>20435.402438000001</v>
       </c>
-      <c r="N86" s="41">
+      <c r="N86" s="39">
         <v>22.9257965386</v>
       </c>
-      <c r="O86" s="41">
+      <c r="O86" s="39">
         <v>33.928571428571402</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A87" s="35" t="s">
+      <c r="A87" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B87" s="39" t="s">
+      <c r="B87" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="C87" s="40">
+      <c r="C87" s="38">
         <v>77.525000000000006</v>
       </c>
-      <c r="D87" s="40">
+      <c r="D87" s="38">
         <v>51.433333333333302</v>
       </c>
-      <c r="E87" s="40">
+      <c r="E87" s="38">
         <v>28.241666666666699</v>
       </c>
-      <c r="F87" s="41">
+      <c r="F87" s="39">
         <v>38.883333333333297</v>
       </c>
-      <c r="G87" s="40">
+      <c r="G87" s="38">
         <v>93.5416666666667</v>
       </c>
-      <c r="H87" s="40">
+      <c r="H87" s="38">
         <v>76.825000000000003</v>
       </c>
-      <c r="I87" s="40">
+      <c r="I87" s="38">
         <v>55.3</v>
       </c>
-      <c r="J87" s="41">
+      <c r="J87" s="39">
         <v>65.2083333333334</v>
       </c>
-      <c r="K87" s="40">
+      <c r="K87" s="38">
         <v>81089.109931700004</v>
       </c>
-      <c r="L87" s="40">
+      <c r="L87" s="38">
         <v>7.5881654863461501</v>
       </c>
-      <c r="M87" s="40">
+      <c r="M87" s="38">
         <v>200205.47909050001</v>
       </c>
-      <c r="N87" s="41">
+      <c r="N87" s="39">
         <v>21.1765198486552</v>
       </c>
-      <c r="O87" s="41">
+      <c r="O87" s="39">
         <v>42.975000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A88" s="35" t="s">
+      <c r="A88" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B88" s="39" t="s">
+      <c r="B88" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="C88" s="40">
+      <c r="C88" s="38">
         <v>99.4</v>
       </c>
-      <c r="D88" s="40">
+      <c r="D88" s="38">
         <v>59.7</v>
       </c>
-      <c r="E88" s="40">
+      <c r="E88" s="38">
         <v>31.9</v>
       </c>
-      <c r="F88" s="41">
+      <c r="F88" s="39">
         <v>39.4</v>
       </c>
-      <c r="G88" s="40">
+      <c r="G88" s="38">
         <v>100</v>
       </c>
-      <c r="H88" s="40">
+      <c r="H88" s="38">
         <v>93.2</v>
       </c>
-      <c r="I88" s="40">
+      <c r="I88" s="38">
         <v>73.7</v>
       </c>
-      <c r="J88" s="41">
+      <c r="J88" s="39">
         <v>78.099999999999994</v>
       </c>
-      <c r="K88" s="40">
+      <c r="K88" s="38">
         <v>172.447</v>
       </c>
-      <c r="L88" s="40">
+      <c r="L88" s="38">
         <v>3.0061132513333302</v>
       </c>
-      <c r="M88" s="40">
+      <c r="M88" s="38">
         <v>4816.098</v>
       </c>
-      <c r="N88" s="41">
+      <c r="N88" s="39">
         <v>20.706933518749999</v>
       </c>
-      <c r="O88" s="41">
+      <c r="O88" s="39">
         <v>47.533333333333303</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A89" s="35" t="s">
+      <c r="A89" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B89" s="39" t="s">
+      <c r="B89" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="C89" s="40">
+      <c r="C89" s="38">
         <v>84.1357142857143</v>
       </c>
-      <c r="D89" s="40">
+      <c r="D89" s="38">
         <v>71.285714285714306</v>
       </c>
-      <c r="E89" s="40">
+      <c r="E89" s="38">
         <v>52.414285714285697</v>
       </c>
-      <c r="F89" s="41">
+      <c r="F89" s="39">
         <v>60.792857142857201</v>
       </c>
-      <c r="G89" s="40">
+      <c r="G89" s="38">
         <v>93.623076923076894</v>
       </c>
-      <c r="H89" s="40">
+      <c r="H89" s="38">
         <v>91.230769230769198</v>
       </c>
-      <c r="I89" s="40">
+      <c r="I89" s="38">
         <v>78.438461538461496</v>
       </c>
-      <c r="J89" s="41">
+      <c r="J89" s="39">
         <v>83.738461538461607</v>
       </c>
-      <c r="K89" s="40">
+      <c r="K89" s="38">
         <v>84750.322199500006</v>
       </c>
-      <c r="L89" s="40">
+      <c r="L89" s="38">
         <v>6.8226239747631601</v>
       </c>
-      <c r="M89" s="40">
+      <c r="M89" s="38">
         <v>277162.75671019999</v>
       </c>
-      <c r="N89" s="41">
+      <c r="N89" s="39">
         <v>22.7547957062093</v>
       </c>
-      <c r="O89" s="41">
+      <c r="O89" s="39">
         <v>60.615151515151503</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="35" t="s">
+      <c r="A90" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B90" s="42" t="s">
+      <c r="B90" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="C90" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="D90" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="E90" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="F90" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="H90" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="I90" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="J90" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="K90" s="43">
+      <c r="C90" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="F90" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="G90" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="H90" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="I90" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="J90" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="K90" s="41">
         <v>444516.05002899998</v>
       </c>
-      <c r="L90" s="43">
+      <c r="L90" s="41">
         <v>11.3585603683415</v>
       </c>
-      <c r="M90" s="43">
+      <c r="M90" s="41">
         <v>2639368.7194480998</v>
       </c>
-      <c r="N90" s="44">
+      <c r="N90" s="42">
         <v>39.782968875119998</v>
       </c>
-      <c r="O90" s="44">
+      <c r="O90" s="42">
         <v>82.886956521739194</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A91" s="35" t="s">
+      <c r="A91" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B91" s="39" t="s">
+      <c r="B91" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="C91" s="40">
+      <c r="C91" s="38">
         <v>65.266666666666694</v>
       </c>
-      <c r="D91" s="40">
+      <c r="D91" s="38">
         <v>41.929166666666703</v>
       </c>
-      <c r="E91" s="40">
+      <c r="E91" s="38">
         <v>19.420833333333299</v>
       </c>
-      <c r="F91" s="41">
+      <c r="F91" s="39">
         <v>28.741666666666699</v>
       </c>
-      <c r="G91" s="40">
+      <c r="G91" s="38">
         <v>86.559090909090898</v>
       </c>
-      <c r="H91" s="40">
+      <c r="H91" s="38">
         <v>73.763636363636394</v>
       </c>
-      <c r="I91" s="40">
+      <c r="I91" s="38">
         <v>48.363636363636402</v>
       </c>
-      <c r="J91" s="41">
+      <c r="J91" s="39">
         <v>57.131818181818197</v>
       </c>
-      <c r="K91" s="40">
+      <c r="K91" s="38">
         <v>1166.1038106000001</v>
       </c>
-      <c r="L91" s="40">
+      <c r="L91" s="38">
         <v>9.6650112319615396</v>
       </c>
-      <c r="M91" s="40">
+      <c r="M91" s="38">
         <v>3036.2716786999999</v>
       </c>
-      <c r="N91" s="41">
+      <c r="N91" s="39">
         <v>26.354546774269199</v>
       </c>
-      <c r="O91" s="41">
+      <c r="O91" s="39">
         <v>21.211538461538499</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A92" s="35" t="s">
+      <c r="A92" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B92" s="39" t="s">
+      <c r="B92" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="C92" s="40">
+      <c r="C92" s="38">
         <v>76.06</v>
       </c>
-      <c r="D92" s="40">
+      <c r="D92" s="38">
         <v>38.24</v>
       </c>
-      <c r="E92" s="40">
+      <c r="E92" s="38">
         <v>15.98</v>
       </c>
-      <c r="F92" s="41">
+      <c r="F92" s="39">
         <v>25.3</v>
       </c>
-      <c r="G92" s="40">
+      <c r="G92" s="38">
         <v>94.92</v>
       </c>
-      <c r="H92" s="40">
+      <c r="H92" s="38">
         <v>67.98</v>
       </c>
-      <c r="I92" s="40">
+      <c r="I92" s="38">
         <v>37.08</v>
       </c>
-      <c r="J92" s="41">
+      <c r="J92" s="39">
         <v>48.6</v>
       </c>
-      <c r="K92" s="40">
+      <c r="K92" s="38">
         <v>1039.329</v>
       </c>
-      <c r="L92" s="40">
+      <c r="L92" s="38">
         <v>4.0371952110909097</v>
       </c>
-      <c r="M92" s="40">
+      <c r="M92" s="38">
         <v>4589.5648600000004</v>
       </c>
-      <c r="N92" s="41">
+      <c r="N92" s="39">
         <v>15.525904887333301</v>
       </c>
-      <c r="O92" s="41">
+      <c r="O92" s="39">
         <v>28.077777777777801</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A93" s="35" t="s">
+      <c r="A93" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B93" s="39" t="s">
+      <c r="B93" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="C93" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="D93" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="E93" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="F93" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="H93" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="I93" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="J93" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="K93" s="40">
+      <c r="C93" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F93" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G93" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H93" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="I93" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="J93" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="K93" s="38">
         <v>188.755</v>
       </c>
-      <c r="L93" s="40">
+      <c r="L93" s="38">
         <v>8.4019282341666699</v>
       </c>
-      <c r="M93" s="40">
+      <c r="M93" s="38">
         <v>1195.758</v>
       </c>
-      <c r="N93" s="41">
+      <c r="N93" s="39">
         <v>22.895626274333299</v>
       </c>
-      <c r="O93" s="41">
+      <c r="O93" s="39">
         <v>35.200000000000003</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A94" s="35" t="s">
+      <c r="A94" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B94" s="39" t="s">
+      <c r="B94" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="C94" s="40">
+      <c r="C94" s="38">
         <v>85.9</v>
       </c>
-      <c r="D94" s="40">
+      <c r="D94" s="38">
         <v>68.3</v>
       </c>
-      <c r="E94" s="40">
+      <c r="E94" s="38">
         <v>53</v>
       </c>
-      <c r="F94" s="41">
+      <c r="F94" s="39">
         <v>59.55</v>
       </c>
-      <c r="G94" s="40">
+      <c r="G94" s="38">
         <v>94.3</v>
       </c>
-      <c r="H94" s="40">
+      <c r="H94" s="38">
         <v>90.1</v>
       </c>
-      <c r="I94" s="40">
+      <c r="I94" s="38">
         <v>67.900000000000006</v>
       </c>
-      <c r="J94" s="41">
+      <c r="J94" s="39">
         <v>76.3</v>
       </c>
-      <c r="K94" s="40">
+      <c r="K94" s="38">
         <v>15469.25635</v>
       </c>
-      <c r="L94" s="40">
+      <c r="L94" s="38">
         <v>2.8315926205333302</v>
       </c>
-      <c r="M94" s="40">
+      <c r="M94" s="38">
         <v>127456.5401708</v>
       </c>
-      <c r="N94" s="41">
+      <c r="N94" s="39">
         <v>17.45535649264</v>
       </c>
-      <c r="O94" s="41">
+      <c r="O94" s="39">
         <v>56.014285714285698</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A95" s="35" t="s">
+      <c r="A95" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B95" s="39" t="s">
+      <c r="B95" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="C95" s="40">
+      <c r="C95" s="38">
         <v>66.025000000000006</v>
       </c>
-      <c r="D95" s="40">
+      <c r="D95" s="38">
         <v>41.816666666666698</v>
       </c>
-      <c r="E95" s="40">
+      <c r="E95" s="38">
         <v>24.283333333333299</v>
       </c>
-      <c r="F95" s="41">
+      <c r="F95" s="39">
         <v>30.933333333333302</v>
       </c>
-      <c r="G95" s="40">
+      <c r="G95" s="38">
         <v>85.758333333333297</v>
       </c>
-      <c r="H95" s="40">
+      <c r="H95" s="38">
         <v>75.033333333333402</v>
       </c>
-      <c r="I95" s="40">
+      <c r="I95" s="38">
         <v>51.341666666666697</v>
       </c>
-      <c r="J95" s="41">
+      <c r="J95" s="39">
         <v>59.033333333333402</v>
       </c>
-      <c r="K95" s="40">
+      <c r="K95" s="38">
         <v>592.00590299999999</v>
       </c>
-      <c r="L95" s="40">
+      <c r="L95" s="38">
         <v>8.91697434083334</v>
       </c>
-      <c r="M95" s="40">
+      <c r="M95" s="38">
         <v>1721.0882406999999</v>
       </c>
-      <c r="N95" s="41">
+      <c r="N95" s="39">
         <v>31.44982942175</v>
       </c>
-      <c r="O95" s="41">
+      <c r="O95" s="39">
         <v>22.9</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="35" t="s">
+      <c r="A96" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B96" s="42" t="s">
+      <c r="B96" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="C96" s="43">
+      <c r="C96" s="41">
         <v>71.854545454545502</v>
       </c>
-      <c r="D96" s="43">
+      <c r="D96" s="41">
         <v>52.036363636363603</v>
       </c>
-      <c r="E96" s="43">
+      <c r="E96" s="41">
         <v>35.481818181818198</v>
       </c>
-      <c r="F96" s="44">
+      <c r="F96" s="42">
         <v>42.209090909090897</v>
       </c>
-      <c r="G96" s="43">
+      <c r="G96" s="41">
         <v>92.618181818181895</v>
       </c>
-      <c r="H96" s="43">
+      <c r="H96" s="41">
         <v>81.763636363636394</v>
       </c>
-      <c r="I96" s="43">
+      <c r="I96" s="41">
         <v>62.1727272727273</v>
       </c>
-      <c r="J96" s="44">
+      <c r="J96" s="42">
         <v>69.527272727272802</v>
       </c>
-      <c r="K96" s="43">
+      <c r="K96" s="41">
         <v>1450.1110000000001</v>
       </c>
-      <c r="L96" s="43">
+      <c r="L96" s="41">
         <v>5.5180279983333298</v>
       </c>
-      <c r="M96" s="43">
+      <c r="M96" s="41">
         <v>4745.665</v>
       </c>
-      <c r="N96" s="44">
+      <c r="N96" s="42">
         <v>16.437732121133301</v>
       </c>
-      <c r="O96" s="44">
+      <c r="O96" s="42">
         <v>47.213333333333303</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A97" s="35" t="s">
+      <c r="A97" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B97" s="39" t="s">
+      <c r="B97" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="C97" s="40">
+      <c r="C97" s="38">
         <v>64.674074074074099</v>
       </c>
-      <c r="D97" s="40">
+      <c r="D97" s="38">
         <v>42.144444444444503</v>
       </c>
-      <c r="E97" s="40">
+      <c r="E97" s="38">
         <v>21.711111111111101</v>
       </c>
-      <c r="F97" s="41">
+      <c r="F97" s="39">
         <v>29.018518518518501</v>
       </c>
-      <c r="G97" s="40">
+      <c r="G97" s="38">
         <v>86.855999999999995</v>
       </c>
-      <c r="H97" s="40">
+      <c r="H97" s="38">
         <v>72.688000000000002</v>
       </c>
-      <c r="I97" s="40">
+      <c r="I97" s="38">
         <v>47.508000000000003</v>
       </c>
-      <c r="J97" s="41">
+      <c r="J97" s="39">
         <v>55.787999999999997</v>
       </c>
-      <c r="K97" s="40">
+      <c r="K97" s="38">
         <v>2079.3559030000001</v>
       </c>
-      <c r="L97" s="40">
+      <c r="L97" s="38">
         <v>9.5547387934230805</v>
       </c>
-      <c r="M97" s="40">
+      <c r="M97" s="38">
         <v>5819.6362406999997</v>
       </c>
-      <c r="N97" s="41">
+      <c r="N97" s="39">
         <v>27.519693405538501</v>
       </c>
-      <c r="O97" s="41">
+      <c r="O97" s="39">
         <v>24.1</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A98" s="35" t="s">
+    <row r="98" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B98" s="39" t="s">
+      <c r="B98" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="C98" s="40">
+      <c r="C98" s="41">
         <v>77.525000000000006</v>
       </c>
-      <c r="D98" s="40">
+      <c r="D98" s="41">
         <v>50.25</v>
       </c>
-      <c r="E98" s="40">
+      <c r="E98" s="41">
         <v>23.95</v>
       </c>
-      <c r="F98" s="41">
+      <c r="F98" s="42">
         <v>35.725000000000001</v>
       </c>
-      <c r="G98" s="40">
+      <c r="G98" s="41">
         <v>94.762500000000003</v>
       </c>
-      <c r="H98" s="40">
+      <c r="H98" s="41">
         <v>71.775000000000006</v>
       </c>
-      <c r="I98" s="40">
+      <c r="I98" s="41">
         <v>48.587499999999999</v>
       </c>
-      <c r="J98" s="41">
+      <c r="J98" s="42">
         <v>59.6</v>
       </c>
-      <c r="K98" s="40">
+      <c r="K98" s="41">
         <v>3372.9580000000001</v>
       </c>
-      <c r="L98" s="40">
+      <c r="L98" s="41">
         <v>7.3730676283076999</v>
       </c>
-      <c r="M98" s="40">
+      <c r="M98" s="41">
         <v>10869.0562445</v>
       </c>
-      <c r="N98" s="41">
+      <c r="N98" s="42">
         <v>23.880698230071399</v>
       </c>
-      <c r="O98" s="41">
+      <c r="O98" s="42">
         <v>32.924999999999997</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B99" s="42" t="s">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A99" s="43"/>
+      <c r="B99" s="44"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="45"/>
+      <c r="E99" s="45"/>
+      <c r="F99" s="45"/>
+      <c r="G99" s="45"/>
+      <c r="H99" s="45"/>
+      <c r="I99" s="45"/>
+      <c r="J99" s="45"/>
+      <c r="K99" s="45"/>
+      <c r="L99" s="45"/>
+      <c r="M99" s="45"/>
+      <c r="N99" s="45"/>
+      <c r="O99" s="45"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C99" s="43">
-        <v>65.242857142857204</v>
-      </c>
-      <c r="D99" s="43">
-        <v>41.8857142857143</v>
-      </c>
-      <c r="E99" s="43">
-        <v>21.214285714285701</v>
-      </c>
-      <c r="F99" s="44">
-        <v>26.457142857142902</v>
-      </c>
-      <c r="G99" s="43">
-        <v>85.342857142857198</v>
-      </c>
-      <c r="H99" s="43">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="I99" s="43">
-        <v>39.642857142857203</v>
-      </c>
-      <c r="J99" s="44">
-        <v>46.8857142857143</v>
-      </c>
-      <c r="K99" s="43">
-        <v>174.739</v>
-      </c>
-      <c r="L99" s="43">
-        <v>2.5699359871666698</v>
-      </c>
-      <c r="M99" s="43">
-        <v>2262.6559999999999</v>
-      </c>
-      <c r="N99" s="44">
-        <v>28.209025361999998</v>
-      </c>
-      <c r="O99" s="44">
-        <v>16.510000000000002</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A100" s="45"/>
-      <c r="B100" s="46"/>
-      <c r="C100" s="47"/>
-      <c r="D100" s="47"/>
-      <c r="E100" s="47"/>
-      <c r="F100" s="47"/>
-      <c r="G100" s="47"/>
-      <c r="H100" s="47"/>
-      <c r="I100" s="47"/>
-      <c r="J100" s="47"/>
-      <c r="K100" s="47"/>
-      <c r="L100" s="47"/>
-      <c r="M100" s="47"/>
-      <c r="N100" s="47"/>
-      <c r="O100" s="47"/>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A101" s="48" t="s">
+      <c r="A101" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A102" s="48" t="s">
+      <c r="A102" s="1" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A103" s="48" t="s">
+      <c r="A103" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A104" s="48" t="s">
+      <c r="A104" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A105" s="48" t="s">
+    <row r="107" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="47" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B108" s="51" t="s">
+      <c r="B108" s="47"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B109" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B109" s="51"/>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
@@ -5998,32 +5990,27 @@
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="2"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B112" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B112" s="2"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B114" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B110" r:id="rId1"/>
-    <hyperlink ref="B111" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
-    <hyperlink ref="B114" r:id="rId3"/>
-    <hyperlink ref="B113" r:id="rId4"/>
-    <hyperlink ref="B108" r:id="rId5" display="If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{A092D6C0-7377-449A-814F-9A4B14A4504C}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{483E7235-7100-4849-9127-5B5A79CAEB65}"/>
+    <hyperlink ref="B107" r:id="rId1" display="If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{9C29F857-CA9A-4088-B860-E182E52B6844}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{845EC33C-FC80-42E9-9DD5-B51A5559B28A}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{6A890005-BD9A-4514-B2A1-61B2A28C2CC0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/AfDD_2023_Annex_Table_Tab14.xlsx
+++ b/AfDD_2023_Annex_Table_Tab14.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8749943A-608C-4F7F-B79F-1C8C2C1A8C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5DA91FF-D08B-4EAD-9C20-6BC68698C6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{00C6C102-B397-4F14-9901-CABCF6B39439}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3485D667-53FD-48A6-A94E-EE485C4BA744}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab14" sheetId="1" r:id="rId1"/>
@@ -48,22 +48,22 @@
     <t>Country (Resource-rich countries are shaded)</t>
   </si>
   <si>
-    <t>Cantril life ladder, most recent measure 2012-21</t>
-  </si>
-  <si>
-    <t>Negative affect, most recent measure 2012-21</t>
-  </si>
-  <si>
-    <t>Positive affect, most recent measure 2012-21</t>
-  </si>
-  <si>
-    <t>Freedom to make life choices, most recent measure 2012-21</t>
-  </si>
-  <si>
-    <t>Generosity, most recent measure 2012-21</t>
-  </si>
-  <si>
-    <t>Social support, most recent measure 2012-21</t>
+    <t>Cantril life ladder, most recent measure 2013-22</t>
+  </si>
+  <si>
+    <t>Negative affect, most recent measure 2013-22</t>
+  </si>
+  <si>
+    <t>Positive affect, most recent measure 2013-22</t>
+  </si>
+  <si>
+    <t>Freedom to make life choices, most recent measure 2013-22</t>
+  </si>
+  <si>
+    <t>Generosity, most recent measure 2013-22</t>
+  </si>
+  <si>
+    <t>Social support, most recent measure 2013-22</t>
   </si>
   <si>
     <t>AGO</t>
@@ -531,7 +531,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: World Happiness Report Online Dataset 2021.</t>
@@ -1372,7 +1372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0040379E-777E-4005-8CBD-A7E96627F819}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA02F31-E43C-47D2-B2EC-2A666BBE1A79}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2992,22 +2992,22 @@
         <v>125</v>
       </c>
       <c r="C63" s="38">
-        <v>5.8937654735845202</v>
+        <v>5.8902884258164301</v>
       </c>
       <c r="D63" s="39">
-        <v>0.29445539704627</v>
+        <v>0.29460977791053</v>
       </c>
       <c r="E63" s="39">
-        <v>0.72120975095916995</v>
+        <v>0.72038237356915003</v>
       </c>
       <c r="F63" s="39">
-        <v>0.82816123142154996</v>
+        <v>0.82672665553671998</v>
       </c>
       <c r="G63" s="39">
-        <v>-4.7972306924999996E-3</v>
+        <v>-5.6752783994999997E-3</v>
       </c>
       <c r="H63" s="40">
-        <v>0.85064957885567005</v>
+        <v>0.85126551735067002</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
@@ -3018,22 +3018,22 @@
         <v>126</v>
       </c>
       <c r="C64" s="34">
-        <v>5.81057410654814</v>
+        <v>5.7897235371849796</v>
       </c>
       <c r="D64" s="35">
-        <v>0.31562309938928002</v>
+        <v>0.31858937713232999</v>
       </c>
       <c r="E64" s="35">
-        <v>0.79166778533354998</v>
+        <v>0.79291529005224004</v>
       </c>
       <c r="F64" s="35">
-        <v>0.83994708372199001</v>
+        <v>0.83787702159447996</v>
       </c>
       <c r="G64" s="35">
-        <v>-5.37682564362E-2</v>
+        <v>-5.2704396911599997E-2</v>
       </c>
       <c r="H64" s="36">
-        <v>0.81971818726996004</v>
+        <v>0.82073891975663005</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
@@ -3070,22 +3070,22 @@
         <v>128</v>
       </c>
       <c r="C66" s="47">
-        <v>5.47416517520562</v>
+        <v>5.4690353593518699</v>
       </c>
       <c r="D66" s="48">
-        <v>0.31080036394058003</v>
+        <v>0.31112098031573998</v>
       </c>
       <c r="E66" s="48">
-        <v>0.70677966129394998</v>
+        <v>0.70601781696276</v>
       </c>
       <c r="F66" s="48">
-        <v>0.78775943873020005</v>
+        <v>0.78623798934669997</v>
       </c>
       <c r="G66" s="48">
-        <v>-1.1224706609000001E-3</v>
+        <v>-1.6922179279000001E-3</v>
       </c>
       <c r="H66" s="49">
-        <v>0.80146210678876995</v>
+        <v>0.80125126571623995</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
@@ -3356,22 +3356,22 @@
         <v>139</v>
       </c>
       <c r="C77" s="43">
-        <v>5.7807843901894298</v>
+        <v>5.7319341659545904</v>
       </c>
       <c r="D77" s="44">
-        <v>0.34246559305625002</v>
+        <v>0.35167565345764001</v>
       </c>
       <c r="E77" s="44">
-        <v>0.78337996656244002</v>
+        <v>0.78529569506645003</v>
       </c>
       <c r="F77" s="44">
-        <v>0.82115121863105001</v>
+        <v>0.81471749544144001</v>
       </c>
       <c r="G77" s="44">
-        <v>-7.9019971699899993E-2</v>
+        <v>-7.9204652272199999E-2</v>
       </c>
       <c r="H77" s="45">
-        <v>0.84066569805144997</v>
+        <v>0.84500606060028005</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
@@ -3460,22 +3460,22 @@
         <v>143</v>
       </c>
       <c r="C81" s="43">
-        <v>5.6880283885532004</v>
+        <v>5.6538367271423402</v>
       </c>
       <c r="D81" s="44">
-        <v>0.28688974595731997</v>
+        <v>0.28696681279689001</v>
       </c>
       <c r="E81" s="44">
-        <v>0.70067042774624</v>
+        <v>0.69262163713573999</v>
       </c>
       <c r="F81" s="44">
-        <v>0.81780119405852003</v>
+        <v>0.80691246315836995</v>
       </c>
       <c r="G81" s="44">
-        <v>1.0651915230680001E-2</v>
+        <v>6.7111144307999996E-3</v>
       </c>
       <c r="H81" s="45">
-        <v>0.85871295796500002</v>
+        <v>0.86383996903895999</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
@@ -3668,22 +3668,22 @@
         <v>151</v>
       </c>
       <c r="C89" s="43">
-        <v>5.6058396233452701</v>
+        <v>5.5868839945111999</v>
       </c>
       <c r="D89" s="44">
-        <v>0.30603572981698002</v>
+        <v>0.30767310454565</v>
       </c>
       <c r="E89" s="44">
-        <v>0.69415176595960004</v>
+        <v>0.69209085667835002</v>
       </c>
       <c r="F89" s="44">
-        <v>0.80976122534937001</v>
+        <v>0.80759759034429002</v>
       </c>
       <c r="G89" s="44">
-        <v>-5.18470891079E-2</v>
+        <v>-5.11234869116E-2</v>
       </c>
       <c r="H89" s="45">
-        <v>0.84154251383411005</v>
+        <v>0.84280766929898998</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3697,19 +3697,19 @@
         <v>6.6837128003438302</v>
       </c>
       <c r="D90" s="48">
-        <v>0.25683281852139001</v>
+        <v>0.25534762272780998</v>
       </c>
       <c r="E90" s="48">
-        <v>0.74765062597063003</v>
+        <v>0.74723589420319003</v>
       </c>
       <c r="F90" s="48">
-        <v>0.86471313767962998</v>
+        <v>0.86335812644525001</v>
       </c>
       <c r="G90" s="48">
-        <v>-2.5535291112500001E-2</v>
+        <v>-2.9786770665899999E-2</v>
       </c>
       <c r="H90" s="49">
-        <v>0.91585633489820995</v>
+        <v>0.91762280464171997</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
@@ -3798,22 +3798,22 @@
         <v>156</v>
       </c>
       <c r="C94" s="43">
-        <v>5.6953866481780997</v>
+        <v>5.6236491501331303</v>
       </c>
       <c r="D94" s="44">
-        <v>0.26036316156387002</v>
+        <v>0.26179147192410002</v>
       </c>
       <c r="E94" s="44">
-        <v>0.74351017922162999</v>
+        <v>0.74055125032152003</v>
       </c>
       <c r="F94" s="44">
-        <v>0.85255708297094002</v>
+        <v>0.84844066202641</v>
       </c>
       <c r="G94" s="44">
-        <v>3.3359519309470002E-2</v>
+        <v>4.7176104970279999E-2</v>
       </c>
       <c r="H94" s="45">
-        <v>0.81979001230663995</v>
+        <v>0.82260600477457002</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
@@ -4085,11 +4085,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{D6830656-053A-45A5-9CA0-5F037608D78E}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{6F491CC9-BBE5-4785-AF57-E27039BED14E}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{29F66672-8B9C-4874-B6C3-788D5E77E159}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{F4C9927E-3A4F-47DA-9A17-FF46953CB3CF}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{6BEEA388-4988-4619-B3B6-56F01A1D9F54}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{AD424527-1A50-4518-9BE7-60317936C34B}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{3BD92B49-2E07-4AA5-8217-7DCFDDF19A88}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{86E48D6E-F1DD-464F-8603-397D729BE42A}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{8A2A9F8F-1BBA-4FC3-B532-A9A6374D0640}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{31D7D1C9-2171-4DA1-B57D-8127CF2C4484}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab14.xlsx
+++ b/AfDD_2023_Annex_Table_Tab14.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5DA91FF-D08B-4EAD-9C20-6BC68698C6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C90AFAF8-02B0-489C-B6D0-679B8AA8F3F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3485D667-53FD-48A6-A94E-EE485C4BA744}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{849837B2-7846-4F9C-AE02-32C3E59A6CB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab14" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab14'!$A$2:$H$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab14'!$A$1:$F$98</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -255,7 +255,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan</t>
+    <t>South Sudan*</t>
   </si>
   <si>
     <t>SDN</t>
@@ -387,7 +387,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria*</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>SEN</t>
@@ -1372,7 +1372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA02F31-E43C-47D2-B2EC-2A666BBE1A79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEC3C34-7307-496C-BAB0-ACE55E349EF1}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2234,25 +2234,25 @@
       <c r="A34" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="28">
         <v>2.81662249565125</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="29">
         <v>0.51736378669739003</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="29">
         <v>0.58560216426848999</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="29">
         <v>0.45601108670235002</v>
       </c>
-      <c r="G34" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H34" s="17">
+      <c r="G34" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" s="30">
         <v>0.55682265758514005</v>
       </c>
     </row>
@@ -2832,25 +2832,25 @@
       <c r="A57" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="28">
+      <c r="C57" s="19">
         <v>5.5029482841491699</v>
       </c>
-      <c r="D57" s="29">
+      <c r="D57" s="20">
         <v>0.31588682532309997</v>
       </c>
-      <c r="E57" s="29">
+      <c r="E57" s="20">
         <v>0.74397772550582997</v>
       </c>
-      <c r="F57" s="29">
+      <c r="F57" s="20">
         <v>0.71306151151657005</v>
       </c>
-      <c r="G57" s="29">
+      <c r="G57" s="20">
         <v>9.9404059350490001E-2</v>
       </c>
-      <c r="H57" s="30">
+      <c r="H57" s="21">
         <v>0.73928946256637995</v>
       </c>
     </row>
@@ -3148,22 +3148,22 @@
         <v>131</v>
       </c>
       <c r="C69" s="43">
-        <v>3.80553929011027</v>
+        <v>3.87775271279471</v>
       </c>
       <c r="D69" s="44">
-        <v>0.38176717857519998</v>
+        <v>0.38498073390552001</v>
       </c>
       <c r="E69" s="44">
-        <v>0.68433807293574</v>
+        <v>0.66522204875946001</v>
       </c>
       <c r="F69" s="44">
-        <v>0.69854482511678995</v>
+        <v>0.69935835685048997</v>
       </c>
       <c r="G69" s="44">
-        <v>0.14850977100432</v>
+        <v>0.13515450463941001</v>
       </c>
       <c r="H69" s="45">
-        <v>0.62416533132394003</v>
+        <v>0.63066862736428997</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
@@ -3356,22 +3356,22 @@
         <v>139</v>
       </c>
       <c r="C77" s="43">
-        <v>5.7319341659545904</v>
+        <v>5.8606124454074502</v>
       </c>
       <c r="D77" s="44">
-        <v>0.35167565345764001</v>
+        <v>0.34672289755608998</v>
       </c>
       <c r="E77" s="44">
-        <v>0.78529569506645003</v>
+        <v>0.79228505823346995</v>
       </c>
       <c r="F77" s="44">
-        <v>0.81471749544144001</v>
+        <v>0.83726225958930001</v>
       </c>
       <c r="G77" s="44">
-        <v>-7.9204652272199999E-2</v>
+        <v>-6.9254385721399997E-2</v>
       </c>
       <c r="H77" s="45">
-        <v>0.84500606060028005</v>
+        <v>0.84942626290850998</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
@@ -3434,22 +3434,22 @@
         <v>142</v>
       </c>
       <c r="C80" s="51">
-        <v>4.7378838062286404</v>
+        <v>4.4020930826663998</v>
       </c>
       <c r="D80" s="52">
-        <v>0.35468596778810002</v>
+        <v>0.37987058795988998</v>
       </c>
       <c r="E80" s="52">
-        <v>0.65414738655089999</v>
+        <v>0.63435044139623997</v>
       </c>
       <c r="F80" s="52">
-        <v>0.60277544334530997</v>
+        <v>0.57064414024353005</v>
       </c>
       <c r="G80" s="52">
-        <v>-5.3916466713400002E-2</v>
+        <v>-7.5819399008299995E-2</v>
       </c>
       <c r="H80" s="53">
-        <v>0.74378209561109998</v>
+        <v>0.72097374498844002</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
@@ -3486,22 +3486,22 @@
         <v>144</v>
       </c>
       <c r="C82" s="43">
-        <v>4.4524682118342502</v>
+        <v>4.5213483602572699</v>
       </c>
       <c r="D82" s="44">
-        <v>0.34706117403813003</v>
+        <v>0.34189509810545998</v>
       </c>
       <c r="E82" s="44">
-        <v>0.67761577704013998</v>
+        <v>0.68167668886674004</v>
       </c>
       <c r="F82" s="44">
-        <v>0.71278704282564997</v>
+        <v>0.71937807935935005</v>
       </c>
       <c r="G82" s="44">
-        <v>2.1118091822070001E-2</v>
+        <v>2.3178248862289998E-2</v>
       </c>
       <c r="H82" s="45">
-        <v>0.67582122561258995</v>
+        <v>0.68049986163775</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3538,22 +3538,22 @@
         <v>146</v>
       </c>
       <c r="C84" s="51">
-        <v>4.3069960162753196</v>
+        <v>4.3311322060498298</v>
       </c>
       <c r="D84" s="52">
-        <v>0.38772175354617</v>
+        <v>0.38575830716977999</v>
       </c>
       <c r="E84" s="52">
-        <v>0.65726315975188998</v>
+        <v>0.65880039063367002</v>
       </c>
       <c r="F84" s="52">
-        <v>0.68544396332332003</v>
+        <v>0.68839752945032995</v>
       </c>
       <c r="G84" s="52">
-        <v>6.5942420526160006E-2</v>
+        <v>6.5446759155020004E-2</v>
       </c>
       <c r="H84" s="53">
-        <v>0.64318074924604995</v>
+        <v>0.64880306205965999</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
@@ -3590,22 +3590,22 @@
         <v>148</v>
       </c>
       <c r="C86" s="43">
-        <v>4.5986801385879499</v>
+        <v>4.5860847673918101</v>
       </c>
       <c r="D86" s="44">
-        <v>0.32320380881429001</v>
+        <v>0.32208159173790002</v>
       </c>
       <c r="E86" s="44">
-        <v>0.67545933127403002</v>
+        <v>0.67463707296471997</v>
       </c>
       <c r="F86" s="44">
-        <v>0.68152459114789998</v>
+        <v>0.67789838972844996</v>
       </c>
       <c r="G86" s="44">
-        <v>-1.16575255292E-2</v>
+        <v>-1.52199844045E-2</v>
       </c>
       <c r="H86" s="45">
-        <v>0.69564319849014</v>
+        <v>0.69189433361355002</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
@@ -3616,22 +3616,22 @@
         <v>149</v>
       </c>
       <c r="C87" s="43">
-        <v>5.2181411286195098</v>
+        <v>5.1376650035381299</v>
       </c>
       <c r="D87" s="44">
-        <v>0.32408747387428999</v>
+        <v>0.33295808297891999</v>
       </c>
       <c r="E87" s="44">
-        <v>0.74854329725107005</v>
+        <v>0.73048964763681001</v>
       </c>
       <c r="F87" s="44">
-        <v>0.83754287660121995</v>
+        <v>0.81976922725638002</v>
       </c>
       <c r="G87" s="44">
-        <v>0.11965743316492999</v>
+        <v>0.11536251547902</v>
       </c>
       <c r="H87" s="45">
-        <v>0.77719107270240995</v>
+        <v>0.78173424055178997</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
@@ -3668,22 +3668,22 @@
         <v>151</v>
       </c>
       <c r="C89" s="43">
-        <v>5.5868839945111999</v>
+        <v>5.6138324015068299</v>
       </c>
       <c r="D89" s="44">
-        <v>0.30767310454565</v>
+        <v>0.30502390954642999</v>
       </c>
       <c r="E89" s="44">
-        <v>0.69209085667835002</v>
+        <v>0.69966786634177003</v>
       </c>
       <c r="F89" s="44">
-        <v>0.80759759034429002</v>
+        <v>0.81702966581690994</v>
       </c>
       <c r="G89" s="44">
-        <v>-5.11234869116E-2</v>
+        <v>-3.8358694422200003E-2</v>
       </c>
       <c r="H89" s="45">
-        <v>0.84280766929898998</v>
+        <v>0.83823045636668003</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3694,22 +3694,22 @@
         <v>152</v>
       </c>
       <c r="C90" s="47">
-        <v>6.6837128003438302</v>
+        <v>6.6592122037359998</v>
       </c>
       <c r="D90" s="48">
-        <v>0.25534762272780998</v>
+        <v>0.25483741805604998</v>
       </c>
       <c r="E90" s="48">
-        <v>0.74723589420319003</v>
+        <v>0.74898661608281003</v>
       </c>
       <c r="F90" s="48">
-        <v>0.86335812644525001</v>
+        <v>0.86344047473825003</v>
       </c>
       <c r="G90" s="48">
-        <v>-2.9786770665899999E-2</v>
+        <v>-3.7630978495899997E-2</v>
       </c>
       <c r="H90" s="49">
-        <v>0.91762280464171997</v>
+        <v>0.91528327698292999</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
@@ -3798,22 +3798,22 @@
         <v>156</v>
       </c>
       <c r="C94" s="43">
-        <v>5.6236491501331303</v>
+        <v>5.5451453413282099</v>
       </c>
       <c r="D94" s="44">
-        <v>0.26179147192410002</v>
+        <v>0.25595080852509</v>
       </c>
       <c r="E94" s="44">
-        <v>0.74055125032152003</v>
+        <v>0.73234396179517003</v>
       </c>
       <c r="F94" s="44">
-        <v>0.84844066202641</v>
+        <v>0.83461324657712999</v>
       </c>
       <c r="G94" s="44">
-        <v>4.7176104970279999E-2</v>
+        <v>3.499539941549E-2</v>
       </c>
       <c r="H94" s="45">
-        <v>0.82260600477457002</v>
+        <v>0.81901471103941004</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
@@ -3876,22 +3876,22 @@
         <v>159</v>
       </c>
       <c r="C97" s="51">
-        <v>4.4438498959396799</v>
+        <v>4.4427880118875001</v>
       </c>
       <c r="D97" s="52">
-        <v>0.36362232448477</v>
+        <v>0.36188379850458002</v>
       </c>
       <c r="E97" s="52">
-        <v>0.67520290974414998</v>
+        <v>0.67324354894020999</v>
       </c>
       <c r="F97" s="52">
-        <v>0.67108643687132996</v>
+        <v>0.67438138495472999</v>
       </c>
       <c r="G97" s="52">
-        <v>4.2571862423490002E-2</v>
+        <v>3.8632469528240003E-2</v>
       </c>
       <c r="H97" s="53">
-        <v>0.68556041609157004</v>
+        <v>0.68029793571023001</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3902,22 +3902,22 @@
         <v>160</v>
       </c>
       <c r="C98" s="47">
-        <v>4.7103739529848099</v>
+        <v>4.75531077384949</v>
       </c>
       <c r="D98" s="48">
-        <v>0.38619210291653999</v>
+        <v>0.37425981724962998</v>
       </c>
       <c r="E98" s="48">
-        <v>0.67209637351333995</v>
+        <v>0.66255626433035997</v>
       </c>
       <c r="F98" s="48">
-        <v>0.72643698193132999</v>
+        <v>0.73614815228125996</v>
       </c>
       <c r="G98" s="48">
-        <v>6.3021162466610006E-2</v>
+        <v>7.6071719858139999E-2</v>
       </c>
       <c r="H98" s="49">
-        <v>0.70839011669159002</v>
+        <v>0.72445550736259001</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
@@ -4085,11 +4085,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{AD424527-1A50-4518-9BE7-60317936C34B}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{3BD92B49-2E07-4AA5-8217-7DCFDDF19A88}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{86E48D6E-F1DD-464F-8603-397D729BE42A}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{8A2A9F8F-1BBA-4FC3-B532-A9A6374D0640}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{31D7D1C9-2171-4DA1-B57D-8127CF2C4484}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{47968903-2008-462F-AF30-C434F55986DF}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{7F826754-3C38-4607-AFE2-29A76FD320B4}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{F67DD052-AD82-4FCF-8E22-E1F39047C7C0}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{B541CDBD-25F1-432E-BE90-A9FEAD17D8A6}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{D52B2712-9B32-4A42-9F74-50AFB1345225}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab14.xlsx
+++ b/AfDD_2023_Annex_Table_Tab14.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C90AFAF8-02B0-489C-B6D0-679B8AA8F3F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04EB58CE-E065-4797-A31F-FA32D73CECC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{849837B2-7846-4F9C-AE02-32C3E59A6CB5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{24689A64-1B4F-4055-9824-527DE9F154E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab14" sheetId="1" r:id="rId1"/>
@@ -1372,7 +1372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEC3C34-7307-496C-BAB0-ACE55E349EF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211E6BA9-1C91-4DAE-8323-46436E831216}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4085,11 +4085,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{47968903-2008-462F-AF30-C434F55986DF}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{7F826754-3C38-4607-AFE2-29A76FD320B4}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{F67DD052-AD82-4FCF-8E22-E1F39047C7C0}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{B541CDBD-25F1-432E-BE90-A9FEAD17D8A6}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{D52B2712-9B32-4A42-9F74-50AFB1345225}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{CFD0F64F-9BE2-438D-A8A2-525AA7DA5D9A}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{D7FDF69F-266D-44A7-B14E-6B12E3AE9987}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{6B914B87-0B74-42EE-A0DF-59FEA76A60E6}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{EB1A930C-5D78-48A9-AD5D-7A5AB20DD910}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{0FC76ADD-333E-4A26-AF12-69356381FA38}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab14.xlsx
+++ b/AfDD_2023_Annex_Table_Tab14.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04EB58CE-E065-4797-A31F-FA32D73CECC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B597B1B-4BAD-45BA-AA52-86C9B10728CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{24689A64-1B4F-4055-9824-527DE9F154E2}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{50B9D4E7-D677-445A-BE4B-D31BF25C0FF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab14" sheetId="1" r:id="rId1"/>
@@ -531,7 +531,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: World Happiness Report Online Dataset 2021.</t>
@@ -1372,7 +1372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211E6BA9-1C91-4DAE-8323-46436E831216}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2340E866-E0E3-47CD-BDCA-C015F5192A80}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3876,22 +3876,22 @@
         <v>159</v>
       </c>
       <c r="C97" s="51">
-        <v>4.4427880118875001</v>
+        <v>4.5540752227489802</v>
       </c>
       <c r="D97" s="52">
-        <v>0.36188379850458002</v>
+        <v>0.34843122615263999</v>
       </c>
       <c r="E97" s="52">
-        <v>0.67324354894020999</v>
+        <v>0.68496586726261999</v>
       </c>
       <c r="F97" s="52">
-        <v>0.67438138495472999</v>
+        <v>0.69022881640837996</v>
       </c>
       <c r="G97" s="52">
-        <v>3.8632469528240003E-2</v>
+        <v>4.513061001825E-2</v>
       </c>
       <c r="H97" s="53">
-        <v>0.68029793571023001</v>
+        <v>0.70881008184872996</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3902,22 +3902,22 @@
         <v>160</v>
       </c>
       <c r="C98" s="47">
-        <v>4.75531077384949</v>
+        <v>5.2005227009455401</v>
       </c>
       <c r="D98" s="48">
-        <v>0.37425981724962998</v>
+        <v>0.34283769006530002</v>
       </c>
       <c r="E98" s="48">
-        <v>0.66255626433035997</v>
+        <v>0.73093719780444999</v>
       </c>
       <c r="F98" s="48">
-        <v>0.73614815228125996</v>
+        <v>0.81080003082751995</v>
       </c>
       <c r="G98" s="48">
-        <v>7.6071719858139999E-2</v>
+        <v>9.1898612910880001E-2</v>
       </c>
       <c r="H98" s="49">
-        <v>0.72445550736259001</v>
+        <v>0.7763326416413</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
@@ -4085,11 +4085,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{CFD0F64F-9BE2-438D-A8A2-525AA7DA5D9A}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{D7FDF69F-266D-44A7-B14E-6B12E3AE9987}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{6B914B87-0B74-42EE-A0DF-59FEA76A60E6}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{EB1A930C-5D78-48A9-AD5D-7A5AB20DD910}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{0FC76ADD-333E-4A26-AF12-69356381FA38}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{76899936-4440-42A5-8B15-AC21BF093488}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{55101D15-A3E8-46C7-B0DD-3C88946E6222}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{E6A2B47B-1152-4EB1-B551-877D84EA76AD}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{E21DCD44-D5CF-4B75-B06C-EA8E08D13599}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{BE8A4312-F754-43D2-BE4A-76D32698BC66}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab14.xlsx
+++ b/AfDD_2023_Annex_Table_Tab14.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B597B1B-4BAD-45BA-AA52-86C9B10728CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF4D1AD3-4826-4149-BC16-F74CCAA2CF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{50B9D4E7-D677-445A-BE4B-D31BF25C0FF3}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{31E73335-9526-4653-925C-1A068FB17445}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab14" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="172">
   <si>
     <t>Table 14: Subjective well-being</t>
   </si>
@@ -540,16 +540,19 @@
     <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
   </si>
   <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators.</t>
-  </si>
-  <si>
     <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
   </si>
   <si>
     <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
+  </si>
+  <si>
+    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
+  </si>
+  <si>
+    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
+  </si>
+  <si>
+    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
   </si>
 </sst>
 </file>
@@ -1372,7 +1375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2340E866-E0E3-47CD-BDCA-C015F5192A80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C906B724-917F-4440-8A6F-C8FEA04C2CFE}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4023,7 +4026,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C109" s="57"/>
       <c r="D109" s="57"/>
@@ -4034,7 +4037,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C110" s="57"/>
       <c r="D110" s="57"/>
@@ -4044,7 +4047,9 @@
       <c r="H110" s="57"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="C111" s="57"/>
       <c r="D111" s="57"/>
       <c r="E111" s="57"/>
@@ -4054,7 +4059,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C112" s="57"/>
       <c r="D112" s="57"/>
@@ -4065,7 +4070,7 @@
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C113" s="57"/>
       <c r="D113" s="57"/>
@@ -4085,13 +4090,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{76899936-4440-42A5-8B15-AC21BF093488}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{55101D15-A3E8-46C7-B0DD-3C88946E6222}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{E6A2B47B-1152-4EB1-B551-877D84EA76AD}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{E21DCD44-D5CF-4B75-B06C-EA8E08D13599}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{BE8A4312-F754-43D2-BE4A-76D32698BC66}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{65E04FD6-66FA-47DC-A181-F1851B059EF8}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{4EF3597C-911F-4763-8E94-9CE8C1C655F8}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{918FA746-6A58-4F5A-95FF-75ED424C28ED}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{4A2F58CC-5C37-4302-A950-86FE3CDEB55B}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{FCF52ED9-CA96-4B40-B380-4BB248207E65}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{EA448B53-1F7F-4454-A1F2-52E62B9185BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/AfDD_2023_Annex_Table_Tab14.xlsx
+++ b/AfDD_2023_Annex_Table_Tab14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF4D1AD3-4826-4149-BC16-F74CCAA2CF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{982C6383-667C-44E1-A500-A9D0BDA2D656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{31E73335-9526-4653-925C-1A068FB17445}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{53272756-1187-4970-885C-EF5859746359}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab14" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab14'!$A$2:$H$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab14'!$A$1:$F$98</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1375,7 +1375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C906B724-917F-4440-8A6F-C8FEA04C2CFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC8DD1D-BF1C-48A9-8B84-DEAB23301E4D}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1383,14 +1383,14 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="12.36328125" style="59" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="12.33203125" style="59" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1401,7 +1401,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>0.75461548566818004</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>0.77366721630096003</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>0.75909769535064997</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>15</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>0.78970539569855003</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>0.54895609617232999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>19</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>0.74230372905731001</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>21</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>0.74057030677794999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>23</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>0.89105033874511996</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>25</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>0.76687163114547996</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>27</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>0.71724265813828003</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
         <v>29</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>0.74840805530548005</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>31</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>0.48471522331237998</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>33</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>0.72004663944243996</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>35</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>0.31958913803101002</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>37</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>0.64045208692551003</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>39</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>0.62476807832717995</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>41</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>0.66968840360641002</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>43</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>46</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>0.76305168867110995</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>48</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="22" t="s">
         <v>29</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>0.60318732261658004</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>51</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>0.63201296329498002</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>53</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>55</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>57</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>0.82313758134841997</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>59</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>0.67371761798858998</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>61</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>0.70061010122298994</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>63</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>0.89256596565247004</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>65</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>0.48945823311806003</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>67</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>69</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>0.59441655874251997</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>71</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>0.55682265758514005</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>73</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>0.81061553955078003</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>75</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>0.73981708288193004</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>77</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>0.80046117305756004</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="22" t="s">
         <v>29</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>0.70123958858576996</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>80</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>0.80325865745544001</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>82</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>0.67272549867630005</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>84</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>0.82671934366225996</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>86</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>0.79810196161269997</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>88</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>0.55252009630203003</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>90</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>0.71901321411133001</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="22" t="s">
         <v>29</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>0.72872312863667998</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>93</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>0.50663608312607</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>95</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>0.68310236930847001</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>97</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>99</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>0.61310631036758001</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>101</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>0.69387012720107999</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>103</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>0.64270335435866999</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>105</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>0.65512418746947998</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>107</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>109</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>0.71247375011444003</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>111</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>0.75455808639526001</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>113</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>0.67695873975753995</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>115</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>0.73928946256637995</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>117</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>0.68761408329009999</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>119</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>0.61077976226806996</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>121</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>0.53870218992232999</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="22" t="s">
         <v>29</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>0.65499373124196003</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="32" t="s">
         <v>29</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>0.68738903327191003</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="32" t="s">
         <v>29</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>0.85126551735067002</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="41" t="s">
         <v>29</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>0.82073891975663005</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="41" t="s">
         <v>29</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>0.77680288255215002</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="41" t="s">
         <v>29</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>0.80125126571623995</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="41" t="s">
         <v>29</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>0.69900141656398995</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="41" t="s">
         <v>29</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>0.65311868895184</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="41" t="s">
         <v>29</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>0.63066862736428997</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="41" t="s">
         <v>29</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>0.60737610856692004</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="41" t="s">
         <v>29</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>0.65499373124196003</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="41" t="s">
         <v>29</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>0.70986185471217</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="41" t="s">
         <v>29</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>0.74125167131423997</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="41" t="s">
         <v>29</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>0.73992265462874995</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="41" t="s">
         <v>29</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>0.74845960736274997</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="41" t="s">
         <v>29</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>0.80503916740418002</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="41" t="s">
         <v>29</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>0.84942626290850998</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="41" t="s">
         <v>29</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>0.92041287819544004</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="41" t="s">
         <v>29</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>0.91787829681446997</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="41" t="s">
         <v>29</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>0.72097374498844002</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="41" t="s">
         <v>29</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>0.86383996903895999</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="41" t="s">
         <v>29</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>0.68049986163775</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="41" t="s">
         <v>29</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>0.84905462474613003</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="41" t="s">
         <v>29</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>0.64880306205965999</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="41" t="s">
         <v>29</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>0.58464284737905003</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="41" t="s">
         <v>29</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>0.69189433361355002</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="41" t="s">
         <v>29</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>0.78173424055178997</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="41" t="s">
         <v>29</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>0.81460414330164999</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="41" t="s">
         <v>29</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>0.83823045636668003</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="41" t="s">
         <v>29</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>0.91528327698292999</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="41" t="s">
         <v>29</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>0.66145415244431005</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="41" t="s">
         <v>29</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>0.70752879314952</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="41" t="s">
         <v>29</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>0.76228946447372004</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="41" t="s">
         <v>29</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>0.81901471103941004</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="41" t="s">
         <v>29</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>0.66154974885285001</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="41" t="s">
         <v>29</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>0.82270589284599005</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="41" t="s">
         <v>29</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>0.70881008184872996</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="41" t="s">
         <v>29</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>0.7763326416413</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="54"/>
       <c r="B99" s="55"/>
       <c r="C99" s="56"/>
@@ -3933,7 +3933,7 @@
       <c r="G99" s="56"/>
       <c r="H99" s="56"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>161</v>
       </c>
@@ -3944,7 +3944,7 @@
       <c r="G100" s="57"/>
       <c r="H100" s="57"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>162</v>
       </c>
@@ -3955,7 +3955,7 @@
       <c r="G101" s="57"/>
       <c r="H101" s="57"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>163</v>
       </c>
@@ -3966,7 +3966,7 @@
       <c r="G102" s="57"/>
       <c r="H102" s="57"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>164</v>
       </c>
@@ -3977,7 +3977,7 @@
       <c r="G103" s="57"/>
       <c r="H103" s="57"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>165</v>
       </c>
@@ -3988,7 +3988,7 @@
       <c r="G104" s="57"/>
       <c r="H104" s="57"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C105" s="57"/>
       <c r="D105" s="57"/>
       <c r="E105" s="57"/>
@@ -3996,7 +3996,7 @@
       <c r="G105" s="57"/>
       <c r="H105" s="57"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C106" s="57"/>
       <c r="D106" s="57"/>
       <c r="E106" s="57"/>
@@ -4004,7 +4004,7 @@
       <c r="G106" s="57"/>
       <c r="H106" s="57"/>
     </row>
-    <row r="107" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B107" s="58" t="s">
         <v>166</v>
       </c>
@@ -4015,7 +4015,7 @@
       <c r="G107" s="57"/>
       <c r="H107" s="57"/>
     </row>
-    <row r="108" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B108" s="58"/>
       <c r="C108" s="57"/>
       <c r="D108" s="57"/>
@@ -4024,7 +4024,7 @@
       <c r="G108" s="57"/>
       <c r="H108" s="57"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>169</v>
       </c>
@@ -4035,7 +4035,7 @@
       <c r="G109" s="57"/>
       <c r="H109" s="57"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>170</v>
       </c>
@@ -4046,7 +4046,7 @@
       <c r="G110" s="57"/>
       <c r="H110" s="57"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>171</v>
       </c>
@@ -4057,7 +4057,7 @@
       <c r="G111" s="57"/>
       <c r="H111" s="57"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>167</v>
       </c>
@@ -4068,7 +4068,7 @@
       <c r="G112" s="57"/>
       <c r="H112" s="57"/>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
         <v>168</v>
       </c>
@@ -4079,7 +4079,7 @@
       <c r="G113" s="57"/>
       <c r="H113" s="57"/>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="57"/>
       <c r="D114" s="57"/>
@@ -4090,12 +4090,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{65E04FD6-66FA-47DC-A181-F1851B059EF8}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{4EF3597C-911F-4763-8E94-9CE8C1C655F8}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{918FA746-6A58-4F5A-95FF-75ED424C28ED}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{4A2F58CC-5C37-4302-A950-86FE3CDEB55B}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{FCF52ED9-CA96-4B40-B380-4BB248207E65}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{EA448B53-1F7F-4454-A1F2-52E62B9185BB}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{44B139F2-39C2-4DAA-9D9F-57E50D8C38F6}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{A365A00C-7B79-4459-BD59-0592E5CE4294}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{B2F1D291-84E0-4A02-8E9A-2095A14FF6CF}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{9E962351-CF60-48E5-91ED-0C4E81BAF8AE}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{A5732FA2-2360-484F-9D57-FC2D6CAA6776}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{9203659E-2E97-43F2-B628-7527DD03DB50}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId7"/>
